--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47603067326892</v>
+        <v>21.4760306732689</v>
       </c>
       <c r="C2">
-        <v>13.5094762449613</v>
+        <v>13.50947624496113</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.395800534350642</v>
+        <v>7.395800534350665</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.5889794781055</v>
+        <v>34.58897947810547</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.875521250889163</v>
+        <v>8.875521250889189</v>
       </c>
       <c r="L2">
-        <v>15.16397342752436</v>
+        <v>15.16397342752433</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91963072718533</v>
+        <v>19.91963072718512</v>
       </c>
       <c r="C3">
-        <v>12.60202809864592</v>
+        <v>12.60202809864616</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.222843815216276</v>
+        <v>7.222843815216152</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.441093931025174</v>
+        <v>8.441093931025149</v>
       </c>
       <c r="L3">
-        <v>14.10559913510525</v>
+        <v>14.1055991351052</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91778073516505</v>
+        <v>18.91778073516507</v>
       </c>
       <c r="C4">
-        <v>12.01946515276457</v>
+        <v>12.0194651527647</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.120372302978441</v>
+        <v>7.120372302978428</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.75163650450984</v>
+        <v>31.7516365045099</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.17228341471341</v>
+        <v>8.172283414713407</v>
       </c>
       <c r="L4">
-        <v>13.42490854624906</v>
+        <v>13.42490854624911</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.49765153714249</v>
+        <v>18.49765153714248</v>
       </c>
       <c r="C5">
-        <v>11.77554919196896</v>
+        <v>11.77554919196907</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.079532916851301</v>
+        <v>7.079532916851328</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>26.21694803853472</v>
       </c>
       <c r="G5">
-        <v>31.30862567213341</v>
+        <v>31.3086256721334</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.062310448175577</v>
+        <v>8.062310448175589</v>
       </c>
       <c r="L5">
-        <v>13.13960334919568</v>
+        <v>13.13960334919565</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42716585884756</v>
+        <v>18.42716585884753</v>
       </c>
       <c r="C6">
-        <v>11.73465003112893</v>
+        <v>11.73465003112885</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.072806560635319</v>
+        <v>7.072806560635294</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>26.12018204701068</v>
       </c>
       <c r="G6">
-        <v>31.23498302105028</v>
+        <v>31.2349830210502</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.044026658692673</v>
+        <v>8.044026658692649</v>
       </c>
       <c r="L6">
-        <v>13.09174596397521</v>
+        <v>13.0917459639752</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9121630861476</v>
+        <v>18.91216308614761</v>
       </c>
       <c r="C7">
-        <v>12.01620216459647</v>
+        <v>12.01620216459632</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.119817831634478</v>
+        <v>7.11981783163453</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>26.78544435617551</v>
       </c>
       <c r="G7">
-        <v>31.74566752221825</v>
+        <v>31.74566752221822</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.170801885677786</v>
+        <v>8.170801885677809</v>
       </c>
       <c r="L7">
-        <v>13.42109308411234</v>
+        <v>13.42109308411233</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.94882043416068</v>
+        <v>20.94882043416072</v>
       </c>
       <c r="C8">
-        <v>13.20177016845679</v>
+        <v>13.20177016845676</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.335380301617506</v>
+        <v>7.335380301617553</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.98572861660872</v>
+        <v>33.9857286166087</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.726206107585449</v>
+        <v>8.726206107585465</v>
       </c>
       <c r="L8">
         <v>14.80534482828979</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58840075379223</v>
+        <v>24.58840075379226</v>
       </c>
       <c r="C9">
-        <v>15.33242535596933</v>
+        <v>15.33242535596918</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.788679356835859</v>
+        <v>7.788679356835877</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>34.45877994148619</v>
       </c>
       <c r="G9">
-        <v>38.32263337361172</v>
+        <v>38.32263337361154</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.796455273498315</v>
+        <v>9.796455273498307</v>
       </c>
       <c r="L9">
-        <v>17.28339243224851</v>
+        <v>17.28339243224849</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>27.06595322669006</v>
       </c>
       <c r="C10">
-        <v>16.7913425160704</v>
+        <v>16.79134251607053</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.142304958515229</v>
+        <v>8.142304958515185</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>37.72874519847222</v>
       </c>
       <c r="G10">
-        <v>41.48021859406158</v>
+        <v>41.48021859406184</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.76675991293573</v>
+        <v>10.76675991293579</v>
       </c>
       <c r="L10">
-        <v>18.97303339492893</v>
+        <v>18.973033394929</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.15552423409852</v>
+        <v>28.15552423409839</v>
       </c>
       <c r="C11">
-        <v>17.43520246595293</v>
+        <v>17.43520246595311</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.308275742465748</v>
+        <v>8.308275742465767</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>39.14805722232859</v>
       </c>
       <c r="G11">
-        <v>42.91449942454717</v>
+        <v>42.91449942454714</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.2013618298672</v>
+        <v>11.20136182986724</v>
       </c>
       <c r="L11">
-        <v>19.71673621584531</v>
+        <v>19.71673621584529</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.56323006421556</v>
+        <v>28.56323006421565</v>
       </c>
       <c r="C12">
         <v>17.67649781446114</v>
@@ -804,10 +804,10 @@
         <v>8.371929556793599</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>39.67592721363781</v>
       </c>
       <c r="G12">
-        <v>43.45786977879912</v>
+        <v>43.4578697787991</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.36410314136483</v>
+        <v>11.36410314136482</v>
       </c>
       <c r="L12">
-        <v>19.99511628702903</v>
+        <v>19.99511628702905</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.47563206525856</v>
+        <v>28.4756320652585</v>
       </c>
       <c r="C13">
-        <v>17.62463679876544</v>
+        <v>17.62463679876518</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.358183471454206</v>
+        <v>8.358183471454186</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.34082389933913</v>
+        <v>43.34082389933928</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.32913182714312</v>
+        <v>11.3291318271431</v>
       </c>
       <c r="L13">
-        <v>19.93530044179947</v>
+        <v>19.93530044179944</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18916132700452</v>
+        <v>28.18916132700441</v>
       </c>
       <c r="C14">
-        <v>17.45510240933774</v>
+        <v>17.45510240933789</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.313495989907164</v>
+        <v>8.313495989907102</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>42.95919423981256</v>
+        <v>42.95919423981258</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.21478611219761</v>
+        <v>11.21478611219768</v>
       </c>
       <c r="L14">
-        <v>19.73970158760577</v>
+        <v>19.73970158760579</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.01306889157889</v>
+        <v>28.01306889157886</v>
       </c>
       <c r="C15">
-        <v>17.3509401723951</v>
+        <v>17.35094017239491</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>8.286230769668517</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>38.96319309154517</v>
       </c>
       <c r="G15">
-        <v>42.72548560006095</v>
+        <v>42.72548560006112</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.1445139299379</v>
+        <v>11.14451392993787</v>
       </c>
       <c r="L15">
-        <v>19.61948017472788</v>
+        <v>19.61948017472786</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.9940338995907</v>
+        <v>26.99403389959079</v>
       </c>
       <c r="C16">
-        <v>16.7488929327829</v>
+        <v>16.74889293278285</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.13156667796548</v>
+        <v>8.131566677965552</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.38648460374393</v>
+        <v>41.38648460374373</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>10.73808936590461</v>
       </c>
       <c r="L16">
-        <v>18.92395701438325</v>
+        <v>18.92395701438327</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.35962084745632</v>
+        <v>26.35962084745643</v>
       </c>
       <c r="C17">
-        <v>16.37469929729395</v>
+        <v>16.37469929729401</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.038036969078536</v>
+        <v>8.038036969078604</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>36.80228778268393</v>
       </c>
       <c r="G17">
-        <v>40.56483740284694</v>
+        <v>40.56483740284685</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.48526890782029</v>
+        <v>10.4852689078203</v>
       </c>
       <c r="L17">
-        <v>18.49111840973754</v>
+        <v>18.49111840973759</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.9911615335917</v>
+        <v>25.99116153359172</v>
       </c>
       <c r="C18">
-        <v>16.1575858795269</v>
+        <v>16.15758587952692</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.984716439478524</v>
+        <v>7.984716439478517</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>36.31710943239623</v>
       </c>
       <c r="G18">
-        <v>40.09200490063197</v>
+        <v>40.0920049006317</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>10.33850619140572</v>
       </c>
       <c r="L18">
-        <v>18.23979202948053</v>
+        <v>18.23979202948055</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.86578183508963</v>
+        <v>25.8657818350897</v>
       </c>
       <c r="C19">
-        <v>16.08374178099782</v>
+        <v>16.08374178099774</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>7.966742812519318</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>36.15172494150063</v>
       </c>
       <c r="G19">
-        <v>39.93185664849529</v>
+        <v>39.93185664849545</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.28857776699816</v>
+        <v>10.28857776699814</v>
       </c>
       <c r="L19">
-        <v>18.15428082522905</v>
+        <v>18.15428082522911</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.42752045245855</v>
+        <v>26.42752045245838</v>
       </c>
       <c r="C20">
-        <v>16.41472595993216</v>
+        <v>16.41472595993237</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.047943726611186</v>
+        <v>8.047943726611152</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>36.891556977314</v>
       </c>
       <c r="G20">
         <v>40.65232492188527</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.5123201137187</v>
+        <v>10.51232011371879</v>
       </c>
       <c r="L20">
-        <v>18.53743771101951</v>
+        <v>18.53743771101949</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.27343310578761</v>
+        <v>28.27343310578762</v>
       </c>
       <c r="C21">
-        <v>17.50496427351072</v>
+        <v>17.50496427351067</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.326599302729317</v>
+        <v>8.326599302729365</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.07127634497089</v>
+        <v>43.07127634497112</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.24842018714053</v>
+        <v>11.24842018714052</v>
       </c>
       <c r="L21">
-        <v>19.79723877715956</v>
+        <v>19.79723877715954</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.45162626359135</v>
+        <v>29.45162626359144</v>
       </c>
       <c r="C22">
-        <v>18.20300299230148</v>
+        <v>18.20300299230152</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.513452214545028</v>
+        <v>8.513452214545113</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>40.81974568026791</v>
       </c>
       <c r="G22">
-        <v>44.6539903638069</v>
+        <v>44.65399036380708</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.71893856441229</v>
+        <v>11.71893856441224</v>
       </c>
       <c r="L22">
-        <v>20.60188187244226</v>
+        <v>20.60188187244228</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.82519821693889</v>
+        <v>28.82519821693892</v>
       </c>
       <c r="C23">
-        <v>17.8316489037996</v>
+        <v>17.8316489037995</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.413263535295204</v>
+        <v>8.41326353529514</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>40.01414225038425</v>
       </c>
       <c r="G23">
-        <v>43.80887162597027</v>
+        <v>43.80887162597038</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.46870491545709</v>
+        <v>11.46870491545708</v>
       </c>
       <c r="L23">
         <v>20.17401363100103</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.39683468570393</v>
+        <v>26.39683468570392</v>
       </c>
       <c r="C24">
-        <v>16.39663611097548</v>
+        <v>16.39663611097559</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.043463481929711</v>
+        <v>8.043463481929743</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>36.85121910575439</v>
       </c>
       <c r="G24">
-        <v>40.61277327521932</v>
+        <v>40.61277327521935</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.50009467921328</v>
+        <v>10.50009467921327</v>
       </c>
       <c r="L24">
-        <v>18.51650450971951</v>
+        <v>18.5165045097195</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.63985479845513</v>
+        <v>23.6398547984552</v>
       </c>
       <c r="C25">
-        <v>14.77570314800376</v>
+        <v>14.77570314800366</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.662605478174724</v>
+        <v>7.662605478174737</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.15530299925496</v>
+        <v>37.15530299925489</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.509169389603175</v>
+        <v>9.509169389603171</v>
       </c>
       <c r="L25">
-        <v>16.63707252208573</v>
+        <v>16.63707252208571</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -412,22 +412,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.4760306732689</v>
+        <v>21.47603067326892</v>
       </c>
       <c r="C2">
-        <v>13.50947624496113</v>
+        <v>13.5094762449613</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.395800534350665</v>
+        <v>7.395800534350642</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.58897947810547</v>
+        <v>34.5889794781055</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -439,10 +439,10 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.875521250889189</v>
+        <v>8.875521250889163</v>
       </c>
       <c r="L2">
-        <v>15.16397342752433</v>
+        <v>15.16397342752436</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -450,16 +450,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91963072718512</v>
+        <v>19.91963072718533</v>
       </c>
       <c r="C3">
-        <v>12.60202809864616</v>
+        <v>12.60202809864592</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.222843815216152</v>
+        <v>7.222843815216276</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
@@ -477,10 +477,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.441093931025149</v>
+        <v>8.441093931025174</v>
       </c>
       <c r="L3">
-        <v>14.1055991351052</v>
+        <v>14.10559913510525</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -488,22 +488,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91778073516507</v>
+        <v>18.91778073516505</v>
       </c>
       <c r="C4">
-        <v>12.0194651527647</v>
+        <v>12.01946515276457</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.120372302978428</v>
+        <v>7.120372302978441</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.7516365045099</v>
+        <v>31.75163650450984</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -515,10 +515,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.172283414713407</v>
+        <v>8.17228341471341</v>
       </c>
       <c r="L4">
-        <v>13.42490854624911</v>
+        <v>13.42490854624906</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -526,22 +526,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.49765153714248</v>
+        <v>18.49765153714249</v>
       </c>
       <c r="C5">
-        <v>11.77554919196907</v>
+        <v>11.77554919196896</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.079532916851328</v>
+        <v>7.079532916851301</v>
       </c>
       <c r="F5">
-        <v>26.21694803853472</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>31.3086256721334</v>
+        <v>31.30862567213341</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.062310448175589</v>
+        <v>8.062310448175577</v>
       </c>
       <c r="L5">
-        <v>13.13960334919565</v>
+        <v>13.13960334919568</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -564,22 +564,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42716585884753</v>
+        <v>18.42716585884756</v>
       </c>
       <c r="C6">
-        <v>11.73465003112885</v>
+        <v>11.73465003112893</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.072806560635294</v>
+        <v>7.072806560635319</v>
       </c>
       <c r="F6">
-        <v>26.12018204701068</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>31.2349830210502</v>
+        <v>31.23498302105028</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -591,10 +591,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.044026658692649</v>
+        <v>8.044026658692673</v>
       </c>
       <c r="L6">
-        <v>13.0917459639752</v>
+        <v>13.09174596397521</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -602,22 +602,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91216308614761</v>
+        <v>18.9121630861476</v>
       </c>
       <c r="C7">
-        <v>12.01620216459632</v>
+        <v>12.01620216459647</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.11981783163453</v>
+        <v>7.119817831634478</v>
       </c>
       <c r="F7">
-        <v>26.78544435617551</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.74566752221822</v>
+        <v>31.74566752221825</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.170801885677809</v>
+        <v>8.170801885677786</v>
       </c>
       <c r="L7">
-        <v>13.42109308411233</v>
+        <v>13.42109308411234</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -640,22 +640,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.94882043416072</v>
+        <v>20.94882043416068</v>
       </c>
       <c r="C8">
-        <v>13.20177016845676</v>
+        <v>13.20177016845679</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.335380301617553</v>
+        <v>7.335380301617506</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.9857286166087</v>
+        <v>33.98572861660872</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.726206107585465</v>
+        <v>8.726206107585449</v>
       </c>
       <c r="L8">
         <v>14.80534482828979</v>
@@ -678,22 +678,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58840075379226</v>
+        <v>24.58840075379223</v>
       </c>
       <c r="C9">
-        <v>15.33242535596918</v>
+        <v>15.33242535596933</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.788679356835877</v>
+        <v>7.788679356835859</v>
       </c>
       <c r="F9">
-        <v>34.45877994148619</v>
+        <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.32263337361154</v>
+        <v>38.32263337361172</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -705,10 +705,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.796455273498307</v>
+        <v>9.796455273498315</v>
       </c>
       <c r="L9">
-        <v>17.28339243224849</v>
+        <v>17.28339243224851</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -719,19 +719,19 @@
         <v>27.06595322669006</v>
       </c>
       <c r="C10">
-        <v>16.79134251607053</v>
+        <v>16.7913425160704</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.142304958515185</v>
+        <v>8.142304958515229</v>
       </c>
       <c r="F10">
-        <v>37.72874519847222</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.48021859406184</v>
+        <v>41.48021859406158</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -743,10 +743,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.76675991293579</v>
+        <v>10.76675991293573</v>
       </c>
       <c r="L10">
-        <v>18.973033394929</v>
+        <v>18.97303339492893</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -754,22 +754,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.15552423409839</v>
+        <v>28.15552423409852</v>
       </c>
       <c r="C11">
-        <v>17.43520246595311</v>
+        <v>17.43520246595293</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.308275742465767</v>
+        <v>8.308275742465748</v>
       </c>
       <c r="F11">
-        <v>39.14805722232859</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>42.91449942454714</v>
+        <v>42.91449942454717</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -781,10 +781,10 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.20136182986724</v>
+        <v>11.2013618298672</v>
       </c>
       <c r="L11">
-        <v>19.71673621584529</v>
+        <v>19.71673621584531</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -792,7 +792,7 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.56323006421565</v>
+        <v>28.56323006421556</v>
       </c>
       <c r="C12">
         <v>17.67649781446114</v>
@@ -804,10 +804,10 @@
         <v>8.371929556793599</v>
       </c>
       <c r="F12">
-        <v>39.67592721363781</v>
+        <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.4578697787991</v>
+        <v>43.45786977879912</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.36410314136482</v>
+        <v>11.36410314136483</v>
       </c>
       <c r="L12">
-        <v>19.99511628702905</v>
+        <v>19.99511628702903</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -830,22 +830,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.4756320652585</v>
+        <v>28.47563206525856</v>
       </c>
       <c r="C13">
-        <v>17.62463679876518</v>
+        <v>17.62463679876544</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.358183471454186</v>
+        <v>8.358183471454206</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.34082389933928</v>
+        <v>43.34082389933913</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -857,10 +857,10 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.3291318271431</v>
+        <v>11.32913182714312</v>
       </c>
       <c r="L13">
-        <v>19.93530044179944</v>
+        <v>19.93530044179947</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -868,22 +868,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18916132700441</v>
+        <v>28.18916132700452</v>
       </c>
       <c r="C14">
-        <v>17.45510240933789</v>
+        <v>17.45510240933774</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.313495989907102</v>
+        <v>8.313495989907164</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>42.95919423981258</v>
+        <v>42.95919423981256</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.21478611219768</v>
+        <v>11.21478611219761</v>
       </c>
       <c r="L14">
-        <v>19.73970158760579</v>
+        <v>19.73970158760577</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -906,10 +906,10 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.01306889157886</v>
+        <v>28.01306889157889</v>
       </c>
       <c r="C15">
-        <v>17.35094017239491</v>
+        <v>17.3509401723951</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -918,10 +918,10 @@
         <v>8.286230769668517</v>
       </c>
       <c r="F15">
-        <v>38.96319309154517</v>
+        <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.72548560006112</v>
+        <v>42.72548560006095</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -933,10 +933,10 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.14451392993787</v>
+        <v>11.1445139299379</v>
       </c>
       <c r="L15">
-        <v>19.61948017472786</v>
+        <v>19.61948017472788</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -944,22 +944,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.99403389959079</v>
+        <v>26.9940338995907</v>
       </c>
       <c r="C16">
-        <v>16.74889293278285</v>
+        <v>16.7488929327829</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.131566677965552</v>
+        <v>8.13156667796548</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.38648460374373</v>
+        <v>41.38648460374393</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -974,7 +974,7 @@
         <v>10.73808936590461</v>
       </c>
       <c r="L16">
-        <v>18.92395701438327</v>
+        <v>18.92395701438325</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -982,22 +982,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.35962084745643</v>
+        <v>26.35962084745632</v>
       </c>
       <c r="C17">
-        <v>16.37469929729401</v>
+        <v>16.37469929729395</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.038036969078604</v>
+        <v>8.038036969078536</v>
       </c>
       <c r="F17">
-        <v>36.80228778268393</v>
+        <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.56483740284685</v>
+        <v>40.56483740284694</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.4852689078203</v>
+        <v>10.48526890782029</v>
       </c>
       <c r="L17">
-        <v>18.49111840973759</v>
+        <v>18.49111840973754</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1020,22 +1020,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.99116153359172</v>
+        <v>25.9911615335917</v>
       </c>
       <c r="C18">
-        <v>16.15758587952692</v>
+        <v>16.1575858795269</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.984716439478517</v>
+        <v>7.984716439478524</v>
       </c>
       <c r="F18">
-        <v>36.31710943239623</v>
+        <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.0920049006317</v>
+        <v>40.09200490063197</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1050,7 +1050,7 @@
         <v>10.33850619140572</v>
       </c>
       <c r="L18">
-        <v>18.23979202948055</v>
+        <v>18.23979202948053</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.8657818350897</v>
+        <v>25.86578183508963</v>
       </c>
       <c r="C19">
-        <v>16.08374178099774</v>
+        <v>16.08374178099782</v>
       </c>
       <c r="D19">
         <v>0</v>
@@ -1070,10 +1070,10 @@
         <v>7.966742812519318</v>
       </c>
       <c r="F19">
-        <v>36.15172494150063</v>
+        <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>39.93185664849545</v>
+        <v>39.93185664849529</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1085,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.28857776699814</v>
+        <v>10.28857776699816</v>
       </c>
       <c r="L19">
-        <v>18.15428082522911</v>
+        <v>18.15428082522905</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1096,19 +1096,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.42752045245838</v>
+        <v>26.42752045245855</v>
       </c>
       <c r="C20">
-        <v>16.41472595993237</v>
+        <v>16.41472595993216</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.047943726611152</v>
+        <v>8.047943726611186</v>
       </c>
       <c r="F20">
-        <v>36.891556977314</v>
+        <v>36.89155697731401</v>
       </c>
       <c r="G20">
         <v>40.65232492188527</v>
@@ -1123,10 +1123,10 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.51232011371879</v>
+        <v>10.5123201137187</v>
       </c>
       <c r="L20">
-        <v>18.53743771101949</v>
+        <v>18.53743771101951</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1134,22 +1134,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.27343310578762</v>
+        <v>28.27343310578761</v>
       </c>
       <c r="C21">
-        <v>17.50496427351067</v>
+        <v>17.50496427351072</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.326599302729365</v>
+        <v>8.326599302729317</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.07127634497112</v>
+        <v>43.07127634497089</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1161,10 +1161,10 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.24842018714052</v>
+        <v>11.24842018714053</v>
       </c>
       <c r="L21">
-        <v>19.79723877715954</v>
+        <v>19.79723877715956</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1172,22 +1172,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.45162626359144</v>
+        <v>29.45162626359135</v>
       </c>
       <c r="C22">
-        <v>18.20300299230152</v>
+        <v>18.20300299230148</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.513452214545113</v>
+        <v>8.513452214545028</v>
       </c>
       <c r="F22">
-        <v>40.81974568026791</v>
+        <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.65399036380708</v>
+        <v>44.6539903638069</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1199,10 +1199,10 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.71893856441224</v>
+        <v>11.71893856441229</v>
       </c>
       <c r="L22">
-        <v>20.60188187244228</v>
+        <v>20.60188187244226</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1210,22 +1210,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.82519821693892</v>
+        <v>28.82519821693889</v>
       </c>
       <c r="C23">
-        <v>17.8316489037995</v>
+        <v>17.8316489037996</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.41326353529514</v>
+        <v>8.413263535295204</v>
       </c>
       <c r="F23">
-        <v>40.01414225038425</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.80887162597038</v>
+        <v>43.80887162597027</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1237,7 +1237,7 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.46870491545708</v>
+        <v>11.46870491545709</v>
       </c>
       <c r="L23">
         <v>20.17401363100103</v>
@@ -1248,22 +1248,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.39683468570392</v>
+        <v>26.39683468570393</v>
       </c>
       <c r="C24">
-        <v>16.39663611097559</v>
+        <v>16.39663611097548</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.043463481929743</v>
+        <v>8.043463481929711</v>
       </c>
       <c r="F24">
-        <v>36.85121910575439</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.61277327521935</v>
+        <v>40.61277327521932</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1275,10 +1275,10 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.50009467921327</v>
+        <v>10.50009467921328</v>
       </c>
       <c r="L24">
-        <v>18.5165045097195</v>
+        <v>18.51650450971951</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1286,22 +1286,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.6398547984552</v>
+        <v>23.63985479845513</v>
       </c>
       <c r="C25">
-        <v>14.77570314800366</v>
+        <v>14.77570314800376</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.662605478174737</v>
+        <v>7.662605478174724</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.15530299925489</v>
+        <v>37.15530299925496</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1313,10 +1313,10 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.509169389603171</v>
+        <v>9.509169389603175</v>
       </c>
       <c r="L25">
-        <v>16.63707252208571</v>
+        <v>16.63707252208573</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,31 +406,34 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47603067326892</v>
+        <v>21.47496788281438</v>
       </c>
       <c r="C2">
-        <v>13.5094762449613</v>
+        <v>13.50794123348444</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.395800534350642</v>
+        <v>7.394999429108667</v>
       </c>
       <c r="F2">
         <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>34.5889794781055</v>
+        <v>33.48543465145787</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>34.58790383837142</v>
       </c>
       <c r="I2">
         <v>0</v>
@@ -439,36 +442,39 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.875521250889163</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>15.16397342752436</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.87544850021424</v>
+      </c>
+      <c r="M2">
+        <v>15.16326433691471</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91963072718533</v>
+        <v>19.91896276933787</v>
       </c>
       <c r="C3">
-        <v>12.60202809864592</v>
+        <v>12.60100566248452</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.222843815216276</v>
+        <v>7.222285721870199</v>
       </c>
       <c r="F3">
         <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>32.83514852896201</v>
+        <v>31.51489751054243</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>32.83578258171922</v>
       </c>
       <c r="I3">
         <v>0</v>
@@ -477,36 +483,39 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.441093931025174</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>14.10559913510525</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>8.441057755198706</v>
+      </c>
+      <c r="M3">
+        <v>14.10513902239972</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91778073516505</v>
+        <v>18.91733732120918</v>
       </c>
       <c r="C4">
-        <v>12.01946515276457</v>
+        <v>12.01875728922234</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.120372302978441</v>
+        <v>7.119975673124252</v>
       </c>
       <c r="F4">
         <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>31.75163650450984</v>
+        <v>30.2841346110404</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>31.75348989218149</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,36 +524,39 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>8.17228341471341</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>13.42490854624906</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>8.172263828209063</v>
+      </c>
+      <c r="M4">
+        <v>13.4245955164448</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.49765153714249</v>
+        <v>18.49729560801395</v>
       </c>
       <c r="C5">
-        <v>11.77554919196896</v>
+        <v>11.77497015897438</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.079532916851301</v>
+        <v>7.079205127137787</v>
       </c>
       <c r="F5">
         <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>31.30862567213341</v>
+        <v>29.77753250990672</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>31.31101963551049</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,36 +565,39 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>8.062310448175577</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>13.13960334919568</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>8.062296291158487</v>
+      </c>
+      <c r="M5">
+        <v>13.13934920022403</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42716585884756</v>
+        <v>18.42682422587671</v>
       </c>
       <c r="C6">
-        <v>11.73465003112893</v>
+        <v>11.73409244839855</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.072806560635319</v>
+        <v>7.072490383875812</v>
       </c>
       <c r="F6">
         <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>31.23498302105028</v>
+        <v>29.69311411305485</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>31.23746941066257</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -591,36 +606,39 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>8.044026658692673</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>13.09174596397521</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>8.044013326770491</v>
+      </c>
+      <c r="M6">
+        <v>13.09150153934979</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.9121630861476</v>
+        <v>18.91172086775441</v>
       </c>
       <c r="C7">
-        <v>12.01620216459647</v>
+        <v>12.01549603503844</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.119817831634478</v>
+        <v>7.119422117934739</v>
       </c>
       <c r="F7">
         <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>31.74566752221825</v>
+        <v>30.27732253270057</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>31.7475280222024</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -629,36 +647,39 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>8.170801885677786</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>13.42109308411234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>8.170782377607113</v>
+      </c>
+      <c r="M7">
+        <v>13.42078085217061</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.94882043416068</v>
+        <v>20.94789781456158</v>
       </c>
       <c r="C8">
-        <v>13.20177016845679</v>
+        <v>13.20041234099518</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.335380301617506</v>
+        <v>7.334660429401244</v>
       </c>
       <c r="F8">
         <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>33.98572861660872</v>
+        <v>32.81039110726102</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>33.9852079857522</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -667,36 +688,39 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.726206107585449</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>14.80534482828979</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.726147278883515</v>
+      </c>
+      <c r="M8">
+        <v>14.80472303938451</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.58840075379223</v>
+        <v>24.5863665564325</v>
       </c>
       <c r="C9">
-        <v>15.33242535596933</v>
+        <v>15.32975575955971</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.788679356835859</v>
+        <v>7.787421097510634</v>
       </c>
       <c r="F9">
         <v>34.45877994148617</v>
       </c>
       <c r="G9">
-        <v>38.32263337361172</v>
+        <v>37.6111826607035</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>38.31873102758631</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -705,36 +729,39 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>9.796455273498315</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>17.28339243224851</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>9.796265025609433</v>
+      </c>
+      <c r="M9">
+        <v>17.28209723689653</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.06595322669006</v>
+        <v>27.06294961483737</v>
       </c>
       <c r="C10">
-        <v>16.7913425160704</v>
+        <v>16.78763755435769</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.142304958515229</v>
+        <v>8.140707696995419</v>
       </c>
       <c r="F10">
         <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>41.48021859406158</v>
+        <v>41.04576801965744</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>41.47452438747578</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -743,36 +770,39 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>10.76675991293573</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>18.97303339492893</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>10.76625798193163</v>
+      </c>
+      <c r="M10">
+        <v>18.97116921696693</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.15552423409852</v>
+        <v>28.15203148140751</v>
       </c>
       <c r="C11">
-        <v>17.43520246595293</v>
+        <v>17.43099712754834</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.308275742465748</v>
+        <v>8.306534986100743</v>
       </c>
       <c r="F11">
         <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>42.91449942454717</v>
+        <v>42.59317610373072</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>42.9081166943696</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -781,36 +811,39 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>11.2013618298672</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>19.71673621584531</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>11.20076533862435</v>
+      </c>
+      <c r="M11">
+        <v>19.71458741040087</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.56323006421556</v>
+        <v>28.55954352046859</v>
       </c>
       <c r="C12">
-        <v>17.67649781446114</v>
+        <v>17.67209733467471</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.371929556793599</v>
+        <v>8.370135794817578</v>
       </c>
       <c r="F12">
         <v>39.67592721363785</v>
       </c>
       <c r="G12">
-        <v>43.45786977879912</v>
+        <v>43.17761801056673</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>43.45124221922163</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -819,36 +852,39 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>11.36410314136483</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>19.99511628702903</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>11.36346843465373</v>
+      </c>
+      <c r="M12">
+        <v>19.99285495324153</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.47563206525856</v>
+        <v>28.47198766921637</v>
       </c>
       <c r="C13">
-        <v>17.62463679876544</v>
+        <v>17.62027862398871</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.358183471454206</v>
+        <v>8.356401070035941</v>
       </c>
       <c r="F13">
         <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>43.34082389933913</v>
+        <v>43.05180386312266</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>43.33424840153693</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -857,36 +893,39 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>11.32913182714312</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>19.93530044179947</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>11.32850546703032</v>
+      </c>
+      <c r="M13">
+        <v>19.93306357321849</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18916132700452</v>
+        <v>28.18565281346505</v>
       </c>
       <c r="C14">
-        <v>17.45510240933774</v>
+        <v>17.45088113925376</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.313495989907164</v>
+        <v>8.311750847488621</v>
       </c>
       <c r="F14">
         <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>42.95919423981256</v>
+        <v>42.64128482527975</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>42.95279106316789</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -895,36 +934,39 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>11.21478611219761</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>19.73970158760577</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>11.21418652844231</v>
+      </c>
+      <c r="M14">
+        <v>19.73754362630811</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.01306889157889</v>
+        <v>28.0096424392627</v>
       </c>
       <c r="C15">
-        <v>17.3509401723951</v>
+        <v>17.3468019756742</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.286230769668517</v>
+        <v>8.284508615575778</v>
       </c>
       <c r="F15">
         <v>38.96319309154516</v>
       </c>
       <c r="G15">
-        <v>42.72548560006095</v>
+        <v>42.38965301266787</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>42.71918997143231</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -933,36 +975,39 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>11.1445139299379</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>19.61948017472788</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>11.14393041731806</v>
+      </c>
+      <c r="M15">
+        <v>19.61736989347725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.9940338995907</v>
+        <v>26.99106115384148</v>
       </c>
       <c r="C16">
-        <v>16.7488929327829</v>
+        <v>16.74521996452438</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.13156667796548</v>
+        <v>8.129978993667592</v>
       </c>
       <c r="F16">
         <v>37.6346354302881</v>
       </c>
       <c r="G16">
-        <v>41.38648460374393</v>
+        <v>40.94438891149033</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>41.38083775168409</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -971,36 +1016,39 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>10.73808936590461</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>18.92395701438325</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>10.73759330707209</v>
+      </c>
+      <c r="M16">
+        <v>18.92211083505413</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.35962084745632</v>
+        <v>26.3569130537201</v>
       </c>
       <c r="C17">
-        <v>16.37469929729395</v>
+        <v>16.37130327292662</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.038036969078536</v>
+        <v>8.036534396717517</v>
       </c>
       <c r="F17">
         <v>36.80228778268389</v>
       </c>
       <c r="G17">
-        <v>40.56483740284694</v>
+        <v>40.0543132778151</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>40.55961943905119</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1009,36 +1057,39 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>10.48526890782029</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>18.49111840973754</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>10.48482277050877</v>
+      </c>
+      <c r="M17">
+        <v>18.48942697440454</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.9911615335917</v>
+        <v>25.9886017193703</v>
       </c>
       <c r="C18">
-        <v>16.1575858795269</v>
+        <v>16.15434648078259</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.984716439478524</v>
+        <v>7.983263846559338</v>
       </c>
       <c r="F18">
         <v>36.31710943239624</v>
       </c>
       <c r="G18">
-        <v>40.09200490063197</v>
+        <v>39.54090480651208</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>40.08704569286405</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1047,36 +1098,39 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>10.33850619140572</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>18.23979202948053</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>10.33808754754766</v>
+      </c>
+      <c r="M18">
+        <v>18.23818724484603</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.86578183508963</v>
+        <v>25.86327140998592</v>
       </c>
       <c r="C19">
-        <v>16.08374178099782</v>
+        <v>16.08055499437801</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.966742812519318</v>
+        <v>7.965307323083855</v>
       </c>
       <c r="F19">
         <v>36.1517249415006</v>
       </c>
       <c r="G19">
-        <v>39.93185664849529</v>
+        <v>39.36680652278536</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>39.92698718945332</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1085,36 +1139,39 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>10.28857776699816</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>18.15428082522905</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>10.28816823543725</v>
+      </c>
+      <c r="M19">
+        <v>18.15270500266385</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.42752045245855</v>
+        <v>26.42478492161144</v>
       </c>
       <c r="C20">
-        <v>16.41472595993216</v>
+        <v>16.41130073972313</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.047943726611186</v>
+        <v>8.046431989106386</v>
       </c>
       <c r="F20">
         <v>36.89155697731401</v>
       </c>
       <c r="G20">
-        <v>40.65232492188527</v>
+        <v>40.14921054243242</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>40.64706006857808</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1123,36 +1180,39 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>10.5123201137187</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>18.53743771101951</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>10.51186879162003</v>
+      </c>
+      <c r="M20">
+        <v>18.53573005332589</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.27343310578761</v>
+        <v>28.26988492775124</v>
       </c>
       <c r="C21">
-        <v>17.50496427351072</v>
+        <v>17.50070295773315</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.326599302729317</v>
+        <v>8.324843182301706</v>
       </c>
       <c r="F21">
         <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>43.07127634497089</v>
+        <v>42.76189971728111</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>43.06482214201206</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1161,36 +1221,39 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>11.24842018714053</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>19.79723877715956</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>11.24781280837823</v>
+      </c>
+      <c r="M21">
+        <v>19.79505777715524</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.45162626359135</v>
+        <v>29.44749598352561</v>
       </c>
       <c r="C22">
-        <v>18.20300299230148</v>
+        <v>18.19816134908001</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.513452214545028</v>
+        <v>8.511543990163585</v>
       </c>
       <c r="F22">
         <v>40.81974568026788</v>
       </c>
       <c r="G22">
-        <v>44.6539903638069</v>
+        <v>44.4609720970101</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>44.64685018046383</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1199,36 +1262,39 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>11.71893856441229</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>20.60188187244226</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>11.71821483639875</v>
+      </c>
+      <c r="M22">
+        <v>20.59936318158406</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.82519821693889</v>
+        <v>28.8213839334099</v>
       </c>
       <c r="C23">
-        <v>17.8316489037996</v>
+        <v>17.82712065072382</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.413263535295204</v>
+        <v>8.411435884216113</v>
       </c>
       <c r="F23">
         <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>43.80887162597027</v>
+        <v>43.5546609842832</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>43.80209006570302</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1237,36 +1303,39 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>11.46870491545709</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>20.17401363100103</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>11.46804479491296</v>
+      </c>
+      <c r="M23">
+        <v>20.17167817417331</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.39683468570393</v>
+        <v>26.39411170821867</v>
       </c>
       <c r="C24">
-        <v>16.39663611097548</v>
+        <v>16.39322409817787</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.043463481929711</v>
+        <v>8.041955884708296</v>
       </c>
       <c r="F24">
         <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>40.61277327521932</v>
+        <v>40.10631280451731</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>40.607529582578</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1275,36 +1344,39 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>10.50009467921328</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>18.51650450971951</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>10.49964570488128</v>
+      </c>
+      <c r="M24">
+        <v>18.5148041932861</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.63985479845513</v>
+        <v>23.63814389706189</v>
       </c>
       <c r="C25">
-        <v>14.77570314800376</v>
+        <v>14.77339689934018</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.662605478174724</v>
+        <v>7.661482581466466</v>
       </c>
       <c r="F25">
         <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>37.15530299925496</v>
+        <v>36.32987475363863</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>37.15218649344509</v>
       </c>
       <c r="I25">
         <v>0</v>
@@ -1313,10 +1385,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>9.509169389603175</v>
+        <v>0</v>
       </c>
       <c r="L25">
-        <v>16.63707252208573</v>
+        <v>9.509021728363486</v>
+      </c>
+      <c r="M25">
+        <v>16.63596974131493</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,989 +409,1139 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.47496788281438</v>
+        <v>24.96038789391953</v>
       </c>
       <c r="C2">
-        <v>13.50794123348444</v>
+        <v>18.26029551680356</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>7.394999429108667</v>
+        <v>17.18522707349673</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>42.02197254583851</v>
       </c>
       <c r="G2">
-        <v>33.48543465145787</v>
+        <v>2.051930955532149</v>
       </c>
       <c r="H2">
-        <v>34.58790383837142</v>
+        <v>0</v>
       </c>
       <c r="I2">
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>5.153684452203659</v>
       </c>
       <c r="K2">
         <v>0</v>
       </c>
       <c r="L2">
-        <v>8.87544850021424</v>
+        <v>0</v>
       </c>
       <c r="M2">
-        <v>15.16326433691471</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>11.05128906975116</v>
+      </c>
+      <c r="O2">
+        <v>22.50144622512765</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.91896276933787</v>
+        <v>23.178546212758</v>
       </c>
       <c r="C3">
-        <v>12.60100566248452</v>
+        <v>16.96780923367588</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>7.222285721870199</v>
+        <v>16.24193570115338</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>39.81101425057819</v>
       </c>
       <c r="G3">
-        <v>31.51489751054243</v>
+        <v>2.062695627153208</v>
       </c>
       <c r="H3">
-        <v>32.83578258171922</v>
+        <v>0</v>
       </c>
       <c r="I3">
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>5.151999311011851</v>
       </c>
       <c r="K3">
         <v>0</v>
       </c>
       <c r="L3">
-        <v>8.441057755198706</v>
+        <v>0</v>
       </c>
       <c r="M3">
-        <v>14.10513902239972</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>11.36351083228437</v>
+      </c>
+      <c r="O3">
+        <v>21.60208117248221</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.91733732120918</v>
+        <v>22.02882560035061</v>
       </c>
       <c r="C4">
-        <v>12.01875728922234</v>
+        <v>16.13389538267886</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>7.119975673124252</v>
+        <v>15.64548525199477</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>38.44259340779003</v>
       </c>
       <c r="G4">
-        <v>30.2841346110404</v>
+        <v>2.069436689591481</v>
       </c>
       <c r="H4">
-        <v>31.75348989218149</v>
+        <v>0</v>
       </c>
       <c r="I4">
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>5.15579046772157</v>
       </c>
       <c r="K4">
         <v>0</v>
       </c>
       <c r="L4">
-        <v>8.172263828209063</v>
+        <v>0</v>
       </c>
       <c r="M4">
-        <v>13.4245955164448</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>11.55710031328629</v>
+      </c>
+      <c r="O4">
+        <v>21.0680631524915</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.49729560801395</v>
+        <v>21.54609411195664</v>
       </c>
       <c r="C5">
-        <v>11.77497015897438</v>
+        <v>15.7837529570685</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>7.079205127137787</v>
+        <v>15.39828459046868</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>37.8826994840716</v>
       </c>
       <c r="G5">
-        <v>29.77753250990672</v>
+        <v>2.072219697622291</v>
       </c>
       <c r="H5">
-        <v>31.31101963551049</v>
+        <v>0</v>
       </c>
       <c r="I5">
         <v>0</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>5.158478135662977</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>8.062296291158487</v>
+        <v>0</v>
       </c>
       <c r="M5">
-        <v>13.13934920022403</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>11.63655043355884</v>
+      </c>
+      <c r="O5">
+        <v>20.85508967323881</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.42682422587671</v>
+        <v>21.46507268708933</v>
       </c>
       <c r="C6">
-        <v>11.73409244839855</v>
+        <v>15.72498408655299</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>7.072490383875812</v>
+        <v>15.35699388074137</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>37.78961040402624</v>
       </c>
       <c r="G6">
-        <v>29.69311411305485</v>
+        <v>2.072684066769972</v>
       </c>
       <c r="H6">
-        <v>31.23746941066257</v>
+        <v>0</v>
       </c>
       <c r="I6">
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>5.158991441474078</v>
       </c>
       <c r="K6">
         <v>0</v>
       </c>
       <c r="L6">
-        <v>8.044013326770491</v>
+        <v>0</v>
       </c>
       <c r="M6">
-        <v>13.09150153934979</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>11.64977934629228</v>
+      </c>
+      <c r="O6">
+        <v>20.82000826344239</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.91172086775441</v>
+        <v>22.02237312505617</v>
       </c>
       <c r="C7">
-        <v>12.01549603503844</v>
+        <v>16.12921523283092</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>7.119422117934739</v>
+        <v>15.64216788367349</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>38.43505085573799</v>
       </c>
       <c r="G7">
-        <v>30.27732253270057</v>
+        <v>2.069474072907547</v>
       </c>
       <c r="H7">
-        <v>31.7475280222024</v>
+        <v>0</v>
       </c>
       <c r="I7">
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>5.155822178425908</v>
       </c>
       <c r="K7">
         <v>0</v>
       </c>
       <c r="L7">
-        <v>8.170782377607113</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>13.42078085217061</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>11.55816942477029</v>
+      </c>
+      <c r="O7">
+        <v>21.06517201749288</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.94789781456158</v>
+        <v>24.35742685249319</v>
       </c>
       <c r="C8">
-        <v>13.20041234099518</v>
+        <v>17.82290500057005</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>7.334660429401244</v>
+        <v>16.86366564047503</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>41.26214048539758</v>
       </c>
       <c r="G8">
-        <v>32.81039110726102</v>
+        <v>2.05561714530629</v>
       </c>
       <c r="H8">
-        <v>33.9852079857522</v>
+        <v>0</v>
       </c>
       <c r="I8">
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>5.152058054786514</v>
       </c>
       <c r="K8">
         <v>0</v>
       </c>
       <c r="L8">
-        <v>8.726147278883515</v>
+        <v>0</v>
       </c>
       <c r="M8">
-        <v>14.80472303938451</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>11.15860693286927</v>
+      </c>
+      <c r="O8">
+        <v>22.18760319508466</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.5863665564325</v>
+        <v>28.50550415391331</v>
       </c>
       <c r="C9">
-        <v>15.32975575955971</v>
+        <v>20.83295051367153</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>7.787421097510634</v>
+        <v>19.11618646249467</v>
       </c>
       <c r="F9">
-        <v>34.45877994148617</v>
+        <v>46.70602816837809</v>
       </c>
       <c r="G9">
-        <v>37.6111826607035</v>
+        <v>2.029341688950383</v>
       </c>
       <c r="H9">
-        <v>38.31873102758631</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>5.186351778408907</v>
       </c>
       <c r="K9">
         <v>0</v>
       </c>
       <c r="L9">
-        <v>9.796265025609433</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>17.28209723689653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>10.38564045643494</v>
+      </c>
+      <c r="O9">
+        <v>24.53159209265257</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>27.06294961483737</v>
+        <v>31.3070100868157</v>
       </c>
       <c r="C10">
-        <v>16.78763755435769</v>
+        <v>22.86799241365199</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>8.140707696995419</v>
+        <v>20.6801576834706</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>50.63786822198573</v>
       </c>
       <c r="G10">
-        <v>41.04576801965744</v>
+        <v>2.010355673639789</v>
       </c>
       <c r="H10">
-        <v>41.47452438747578</v>
+        <v>0</v>
       </c>
       <c r="I10">
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>5.241974116905058</v>
       </c>
       <c r="K10">
         <v>0</v>
       </c>
       <c r="L10">
-        <v>10.76625798193163</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>18.97116921696693</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>9.817305425305181</v>
+      </c>
+      <c r="O10">
+        <v>26.34238420277411</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>28.15203148140751</v>
+        <v>32.53229904492431</v>
       </c>
       <c r="C11">
-        <v>17.43099712754834</v>
+        <v>23.75885455861656</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>8.306534986100743</v>
+        <v>21.372141638141</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>52.41376437993364</v>
       </c>
       <c r="G11">
-        <v>42.59317610373072</v>
+        <v>2.001728017346601</v>
       </c>
       <c r="H11">
-        <v>42.9081166943696</v>
+        <v>0</v>
       </c>
       <c r="I11">
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>5.275096636835968</v>
       </c>
       <c r="K11">
         <v>0</v>
       </c>
       <c r="L11">
-        <v>11.20076533862435</v>
+        <v>0</v>
       </c>
       <c r="M11">
-        <v>19.71458741040087</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>9.556869572959735</v>
+      </c>
+      <c r="O11">
+        <v>27.18704086782826</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.55954352046859</v>
+        <v>32.98962404947534</v>
       </c>
       <c r="C12">
-        <v>17.67209733467471</v>
+        <v>24.09150640981767</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>8.370135794817578</v>
+        <v>21.63146359103202</v>
       </c>
       <c r="F12">
-        <v>39.67592721363785</v>
+        <v>53.08480570148624</v>
       </c>
       <c r="G12">
-        <v>43.17761801056673</v>
+        <v>1.998456468810394</v>
       </c>
       <c r="H12">
-        <v>43.45124221922163</v>
+        <v>0</v>
       </c>
       <c r="I12">
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>5.28887479379101</v>
       </c>
       <c r="K12">
         <v>0</v>
       </c>
       <c r="L12">
-        <v>11.36346843465373</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>19.99285495324153</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>9.457802616790447</v>
+      </c>
+      <c r="O12">
+        <v>27.51014062988432</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>28.47198766921637</v>
+        <v>32.89142043811716</v>
       </c>
       <c r="C13">
-        <v>17.62027862398871</v>
+        <v>24.02006730736818</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>8.356401070035941</v>
+        <v>21.57573294220455</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>52.94034152782255</v>
       </c>
       <c r="G13">
-        <v>43.05180386312266</v>
+        <v>1.999161353681653</v>
       </c>
       <c r="H13">
-        <v>43.33424840153693</v>
+        <v>0</v>
       </c>
       <c r="I13">
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>5.285850600185866</v>
       </c>
       <c r="K13">
         <v>0</v>
       </c>
       <c r="L13">
-        <v>11.32850546703032</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>19.93306357321849</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>9.479161291456062</v>
+      </c>
+      <c r="O13">
+        <v>27.44040603982052</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>28.18565281346505</v>
+        <v>32.57005455455542</v>
       </c>
       <c r="C14">
-        <v>17.45088113925376</v>
+        <v>23.78631421076592</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>8.311750847488621</v>
+        <v>21.39353000926647</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>52.46899763130647</v>
       </c>
       <c r="G14">
-        <v>42.64128482527975</v>
+        <v>2.001458990103747</v>
       </c>
       <c r="H14">
-        <v>42.95279106316789</v>
+        <v>0</v>
       </c>
       <c r="I14">
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>5.276204743202271</v>
       </c>
       <c r="K14">
         <v>0</v>
       </c>
       <c r="L14">
-        <v>11.21418652844231</v>
+        <v>0</v>
       </c>
       <c r="M14">
-        <v>19.73754362630811</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>9.548729281990832</v>
+      </c>
+      <c r="O14">
+        <v>27.21355568740735</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>28.0096424392627</v>
+        <v>32.37235340236231</v>
       </c>
       <c r="C15">
-        <v>17.3468019756742</v>
+        <v>23.64253200959946</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>8.284508615575778</v>
+        <v>21.28157492778513</v>
       </c>
       <c r="F15">
-        <v>38.96319309154516</v>
+        <v>52.18011114750036</v>
       </c>
       <c r="G15">
-        <v>42.38965301266787</v>
+        <v>2.002865595009832</v>
       </c>
       <c r="H15">
-        <v>42.71918997143231</v>
+        <v>0</v>
       </c>
       <c r="I15">
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>5.270460726640966</v>
       </c>
       <c r="K15">
         <v>0</v>
       </c>
       <c r="L15">
-        <v>11.14393041731806</v>
+        <v>0</v>
       </c>
       <c r="M15">
-        <v>19.61736989347725</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>9.591278114995642</v>
+      </c>
+      <c r="O15">
+        <v>27.07503489067937</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.99106115384148</v>
+        <v>31.22597893479488</v>
       </c>
       <c r="C16">
-        <v>16.74521996452438</v>
+        <v>22.80909672954832</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>8.129978993667592</v>
+        <v>20.63454894737514</v>
       </c>
       <c r="F16">
-        <v>37.6346354302881</v>
+        <v>50.52158133637055</v>
       </c>
       <c r="G16">
-        <v>40.94438891149033</v>
+        <v>2.010919221849647</v>
       </c>
       <c r="H16">
-        <v>41.38083775168409</v>
+        <v>0</v>
       </c>
       <c r="I16">
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>5.239976088364013</v>
       </c>
       <c r="K16">
         <v>0</v>
       </c>
       <c r="L16">
-        <v>10.73759330707209</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>18.92211083505413</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>9.834273123086003</v>
+      </c>
+      <c r="O16">
+        <v>26.28762299900643</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>26.3569130537201</v>
+        <v>30.51040037587946</v>
       </c>
       <c r="C17">
-        <v>16.37130327292662</v>
+        <v>22.28908937747266</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>8.036534396717517</v>
+        <v>20.23267438191149</v>
       </c>
       <c r="F17">
-        <v>36.80228778268389</v>
+        <v>49.5010801713095</v>
       </c>
       <c r="G17">
-        <v>40.0543132778151</v>
+        <v>2.015858362261201</v>
       </c>
       <c r="H17">
-        <v>40.55961943905119</v>
+        <v>0</v>
       </c>
       <c r="I17">
         <v>0</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>5.223353387725638</v>
       </c>
       <c r="K17">
         <v>0</v>
       </c>
       <c r="L17">
-        <v>10.48482277050877</v>
+        <v>0</v>
       </c>
       <c r="M17">
-        <v>18.48942697440454</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>9.982741251491754</v>
+      </c>
+      <c r="O17">
+        <v>25.81006840312464</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.9886017193703</v>
+        <v>30.0941674296802</v>
       </c>
       <c r="C18">
-        <v>16.15434648078259</v>
+        <v>21.9866897049035</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>7.983263846559338</v>
+        <v>19.99968559718021</v>
       </c>
       <c r="F18">
-        <v>36.31710943239624</v>
+        <v>48.91288431290025</v>
       </c>
       <c r="G18">
-        <v>39.54090480651208</v>
+        <v>2.018700478295688</v>
       </c>
       <c r="H18">
-        <v>40.08704569286405</v>
+        <v>0</v>
       </c>
       <c r="I18">
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>5.214521285748876</v>
       </c>
       <c r="K18">
         <v>0</v>
       </c>
       <c r="L18">
-        <v>10.33808754754766</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>18.23818724484603</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>10.06796925527609</v>
+      </c>
+      <c r="O18">
+        <v>25.53734077903407</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.86327140998592</v>
+        <v>29.95242792652135</v>
       </c>
       <c r="C19">
-        <v>16.08055499437801</v>
+        <v>21.88372565297482</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>7.965307323083855</v>
+        <v>19.92048168804563</v>
       </c>
       <c r="F19">
-        <v>36.1517249415006</v>
+        <v>48.71351145068594</v>
       </c>
       <c r="G19">
-        <v>39.36680652278536</v>
+        <v>2.019663147718678</v>
       </c>
       <c r="H19">
-        <v>39.92698718945332</v>
+        <v>0</v>
       </c>
       <c r="I19">
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>5.211652846398385</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
-        <v>10.28816823543725</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18.15270500266385</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>10.09680219829487</v>
+      </c>
+      <c r="O19">
+        <v>25.44532896698267</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>26.42478492161144</v>
+        <v>30.58705357364203</v>
       </c>
       <c r="C20">
-        <v>16.41130073972313</v>
+        <v>22.34478494620891</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>8.046431989106386</v>
+        <v>20.27564473166027</v>
       </c>
       <c r="F20">
-        <v>36.89155697731401</v>
+        <v>49.6098394777112</v>
       </c>
       <c r="G20">
-        <v>40.14921054243242</v>
+        <v>2.015332491794943</v>
       </c>
       <c r="H20">
-        <v>40.64706006857808</v>
+        <v>0</v>
       </c>
       <c r="I20">
         <v>0</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>5.225046699136475</v>
       </c>
       <c r="K20">
         <v>0</v>
       </c>
       <c r="L20">
-        <v>10.51186879162003</v>
+        <v>0</v>
       </c>
       <c r="M20">
-        <v>18.53573005332589</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>9.96695501767247</v>
+      </c>
+      <c r="O20">
+        <v>25.86070175934502</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>28.26988492775124</v>
+        <v>32.66462495285667</v>
       </c>
       <c r="C21">
-        <v>17.50070295773315</v>
+        <v>23.85509792107824</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>8.324843182301706</v>
+        <v>21.44712025408733</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>52.60747823720492</v>
       </c>
       <c r="G21">
-        <v>42.76189971728111</v>
+        <v>2.00078428924378</v>
       </c>
       <c r="H21">
-        <v>43.06482214201206</v>
+        <v>0</v>
       </c>
       <c r="I21">
         <v>0</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>5.279003502197496</v>
       </c>
       <c r="K21">
         <v>0</v>
       </c>
       <c r="L21">
-        <v>11.24781280837823</v>
+        <v>0</v>
       </c>
       <c r="M21">
-        <v>19.79505777715524</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>9.528309068587998</v>
+      </c>
+      <c r="O21">
+        <v>27.2800966210086</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>29.44749598352561</v>
+        <v>33.98381273556995</v>
       </c>
       <c r="C22">
-        <v>18.19816134908001</v>
+        <v>24.81496964050772</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>8.511543990163585</v>
+        <v>22.19698482211453</v>
       </c>
       <c r="F22">
-        <v>40.81974568026788</v>
+        <v>54.55845632211948</v>
       </c>
       <c r="G22">
-        <v>44.4609720970101</v>
+        <v>1.991246995005289</v>
       </c>
       <c r="H22">
-        <v>44.64685018046383</v>
+        <v>0</v>
       </c>
       <c r="I22">
         <v>0</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>5.321527396087913</v>
       </c>
       <c r="K22">
         <v>0</v>
       </c>
       <c r="L22">
-        <v>11.71821483639875</v>
+        <v>0</v>
       </c>
       <c r="M22">
-        <v>20.59936318158406</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>9.238932658767606</v>
+      </c>
+      <c r="O22">
+        <v>28.33751143111662</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.8213839334099</v>
+        <v>33.28312529585066</v>
       </c>
       <c r="C23">
-        <v>17.82712065072382</v>
+        <v>24.305040488773</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>8.411435884216113</v>
+        <v>21.79816906567453</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>53.51775468627375</v>
       </c>
       <c r="G23">
-        <v>43.5546609842832</v>
+        <v>1.996342031184433</v>
       </c>
       <c r="H23">
-        <v>43.80209006570302</v>
+        <v>0</v>
       </c>
       <c r="I23">
         <v>0</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>5.298127865751555</v>
       </c>
       <c r="K23">
         <v>0</v>
       </c>
       <c r="L23">
-        <v>11.46804479491296</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>20.17167817417331</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>9.393688737651528</v>
+      </c>
+      <c r="O23">
+        <v>27.72189682157934</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>26.39411170821867</v>
+        <v>30.55241375951824</v>
       </c>
       <c r="C24">
-        <v>16.39322409817787</v>
+        <v>22.31961571950735</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>8.041955884708296</v>
+        <v>20.25622390267843</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>49.56067408149291</v>
       </c>
       <c r="G24">
-        <v>40.10631280451731</v>
+        <v>2.015570229502422</v>
       </c>
       <c r="H24">
-        <v>40.607529582578</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <v>0</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>5.224278904616457</v>
       </c>
       <c r="K24">
         <v>0</v>
       </c>
       <c r="L24">
-        <v>10.49964570488128</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>18.5148041932861</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>9.974092360910976</v>
+      </c>
+      <c r="O24">
+        <v>25.83780475158758</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.63814389706189</v>
+        <v>27.42786626152857</v>
       </c>
       <c r="C25">
-        <v>14.77339689934018</v>
+        <v>20.05068352794736</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>7.661482581466466</v>
+        <v>18.52270687462401</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>45.24531090546436</v>
       </c>
       <c r="G25">
-        <v>36.32987475363863</v>
+        <v>2.036375748307258</v>
       </c>
       <c r="H25">
-        <v>37.15218649344509</v>
+        <v>0</v>
       </c>
       <c r="I25">
         <v>0</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>5.172116232837673</v>
       </c>
       <c r="K25">
         <v>0</v>
       </c>
       <c r="L25">
-        <v>9.509021728363486</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>16.63596974131493</v>
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>10.59427768487515</v>
+      </c>
+      <c r="O25">
+        <v>23.88221795044793</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>24.96038789391953</v>
+        <v>12.08081332703488</v>
       </c>
       <c r="C2">
-        <v>18.26029551680356</v>
+        <v>6.324521103180814</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>17.18522707349673</v>
+        <v>14.6642465270379</v>
       </c>
       <c r="F2">
-        <v>42.02197254583851</v>
+        <v>30.27884324296193</v>
       </c>
       <c r="G2">
-        <v>2.051930955532149</v>
+        <v>2.092206016046894</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,22 +445,22 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>5.153684452203659</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>10.6616405728552</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>14.26861591776022</v>
       </c>
       <c r="N2">
-        <v>11.05128906975116</v>
+        <v>12.21863598302833</v>
       </c>
       <c r="O2">
-        <v>22.50144622512765</v>
+        <v>14.39002032727703</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.178546212758</v>
+        <v>11.29386857656418</v>
       </c>
       <c r="C3">
-        <v>16.96780923367588</v>
+        <v>6.074062359577328</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>16.24193570115338</v>
+        <v>13.78066822696156</v>
       </c>
       <c r="F3">
-        <v>39.81101425057819</v>
+        <v>28.16301984326747</v>
       </c>
       <c r="G3">
-        <v>2.062695627153208</v>
+        <v>2.096662835722254</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,22 +492,22 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>5.151999311011851</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>10.06792834101908</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>13.34726263368466</v>
       </c>
       <c r="N3">
-        <v>11.36351083228437</v>
+        <v>12.42705672040348</v>
       </c>
       <c r="O3">
-        <v>21.60208117248221</v>
+        <v>14.45398136627188</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.02882560035061</v>
+        <v>10.78273983143652</v>
       </c>
       <c r="C4">
-        <v>16.13389538267886</v>
+        <v>5.914770307093113</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>15.64548525199477</v>
+        <v>13.22089302857776</v>
       </c>
       <c r="F4">
-        <v>38.44259340779003</v>
+        <v>26.79314218379242</v>
       </c>
       <c r="G4">
-        <v>2.069436689591481</v>
+        <v>2.099481894450943</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,22 +539,22 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>5.15579046772157</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>9.68493268976593</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>12.75126425724241</v>
       </c>
       <c r="N4">
-        <v>11.55710031328629</v>
+        <v>12.55783363164117</v>
       </c>
       <c r="O4">
-        <v>21.0680631524915</v>
+        <v>14.50638137705436</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.54609411195664</v>
+        <v>10.56740069094511</v>
       </c>
       <c r="C5">
-        <v>15.7837529570685</v>
+        <v>5.848524603043328</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>15.39828459046868</v>
+        <v>12.98864678286018</v>
       </c>
       <c r="F5">
-        <v>37.8826994840716</v>
+        <v>26.21694803853475</v>
       </c>
       <c r="G5">
-        <v>2.072219697622291</v>
+        <v>2.100651940652581</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,22 +586,22 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>5.158478135662977</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>9.524269410305291</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>12.50074861554761</v>
       </c>
       <c r="N5">
-        <v>11.63655043355884</v>
+        <v>12.61185579202555</v>
       </c>
       <c r="O5">
-        <v>20.85508967323881</v>
+        <v>14.53088506501386</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.46507268708933</v>
+        <v>10.53121738631339</v>
       </c>
       <c r="C6">
-        <v>15.72498408655299</v>
+        <v>5.837445740421911</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>15.35699388074137</v>
+        <v>12.94983987018845</v>
       </c>
       <c r="F6">
-        <v>37.78961040402624</v>
+        <v>26.1201820470107</v>
       </c>
       <c r="G6">
-        <v>2.072684066769972</v>
+        <v>2.100847523955436</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,22 +633,22 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>5.158991441474078</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>9.497316009025011</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>12.45868859213513</v>
       </c>
       <c r="N6">
-        <v>11.64977934629228</v>
+        <v>12.62087087174907</v>
       </c>
       <c r="O6">
-        <v>20.82000826344239</v>
+        <v>14.53513981410941</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.02237312505617</v>
+        <v>10.77986426595604</v>
       </c>
       <c r="C7">
-        <v>16.12921523283092</v>
+        <v>5.913882216059761</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>15.64216788367349</v>
+        <v>13.21777730002403</v>
       </c>
       <c r="F7">
-        <v>38.43505085573799</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>2.069474072907547</v>
+        <v>2.099497587390761</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,22 +680,22 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>5.155822178425908</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>9.682784432149266</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>12.74791668320152</v>
       </c>
       <c r="N7">
-        <v>11.55816942477029</v>
+        <v>12.55855920869076</v>
       </c>
       <c r="O7">
-        <v>21.06517201749288</v>
+        <v>14.50669928360945</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.35742685249319</v>
+        <v>11.81525808202584</v>
       </c>
       <c r="C8">
-        <v>17.82290500057005</v>
+        <v>6.239335434116784</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>16.86366564047503</v>
+        <v>14.36327738631298</v>
       </c>
       <c r="F8">
-        <v>41.26214048539758</v>
+        <v>29.56389055882486</v>
       </c>
       <c r="G8">
-        <v>2.05561714530629</v>
+        <v>2.093725900753658</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,22 +727,22 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>5.152058054786514</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.4607844875314</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>13.95719962341356</v>
       </c>
       <c r="N8">
-        <v>11.15860693286927</v>
+        <v>12.28993193353096</v>
       </c>
       <c r="O8">
-        <v>22.18760319508466</v>
+        <v>14.40925763734407</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.50550415391331</v>
+        <v>13.62528772982512</v>
       </c>
       <c r="C9">
-        <v>20.83295051367153</v>
+        <v>6.831928569208495</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>19.11618646249467</v>
+        <v>16.58102578159949</v>
       </c>
       <c r="F9">
-        <v>46.70602816837809</v>
+        <v>34.4587799414611</v>
       </c>
       <c r="G9">
-        <v>2.029341688950383</v>
+        <v>2.083038860050751</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,22 +774,22 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>5.186351778408907</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>11.83853591658096</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>16.09002273584075</v>
       </c>
       <c r="N9">
-        <v>10.38564045643494</v>
+        <v>11.78426615807473</v>
       </c>
       <c r="O9">
-        <v>24.53159209265257</v>
+        <v>14.32924979396475</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31.3070100868157</v>
+        <v>14.82290527227935</v>
       </c>
       <c r="C10">
-        <v>22.86799241365199</v>
+        <v>7.237469260761883</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>20.6801576834706</v>
+        <v>18.20184821860589</v>
       </c>
       <c r="F10">
-        <v>50.63786822198573</v>
+        <v>37.72874519847217</v>
       </c>
       <c r="G10">
-        <v>2.010355673639789</v>
+        <v>2.075536728287656</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,22 +821,22 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>5.241974116905058</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>12.75951932720661</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>17.51456709803108</v>
       </c>
       <c r="N10">
-        <v>9.817305425305181</v>
+        <v>11.42391710565602</v>
       </c>
       <c r="O10">
-        <v>26.34238420277411</v>
+        <v>14.34784055600535</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>32.53229904492431</v>
+        <v>15.33955310508773</v>
       </c>
       <c r="C11">
-        <v>23.75885455861656</v>
+        <v>7.415188164371053</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>21.372141638141</v>
+        <v>18.90825300206486</v>
       </c>
       <c r="F11">
-        <v>52.41376437993364</v>
+        <v>39.14805722232856</v>
       </c>
       <c r="G11">
-        <v>2.001728017346601</v>
+        <v>2.072191436820217</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>5.275096636835968</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>13.15866351583057</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>18.13250109037749</v>
       </c>
       <c r="N11">
-        <v>9.556869572959735</v>
+        <v>11.2620054702869</v>
       </c>
       <c r="O11">
-        <v>27.18704086782826</v>
+        <v>14.37521087333741</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.98962404947534</v>
+        <v>15.53119192688782</v>
       </c>
       <c r="C12">
-        <v>24.09150640981767</v>
+        <v>7.481496279554165</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>21.63146359103202</v>
+        <v>19.17141334736702</v>
       </c>
       <c r="F12">
-        <v>53.08480570148624</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>1.998456468810394</v>
+        <v>2.070933634391508</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,22 +915,22 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>5.28887479379101</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>13.30696753842862</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>18.36224218357986</v>
       </c>
       <c r="N12">
-        <v>9.457802616790447</v>
+        <v>11.20094775738106</v>
       </c>
       <c r="O12">
-        <v>27.51014062988432</v>
+        <v>14.38846984446467</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>32.89142043811716</v>
+        <v>15.49009644562114</v>
       </c>
       <c r="C13">
-        <v>24.02006730736818</v>
+        <v>7.467259901008553</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.57573294220455</v>
+        <v>19.11492827886073</v>
       </c>
       <c r="F13">
-        <v>52.94034152782255</v>
+        <v>39.5626640325822</v>
       </c>
       <c r="G13">
-        <v>1.999161353681653</v>
+        <v>2.071204136857754</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,22 +962,22 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>5.285850600185866</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>13.27515389230221</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>18.31295146013975</v>
       </c>
       <c r="N13">
-        <v>9.479161291456062</v>
+        <v>11.21408687891276</v>
       </c>
       <c r="O13">
-        <v>27.44040603982052</v>
+        <v>14.38548277642712</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>32.57005455455542</v>
+        <v>15.35539933949813</v>
       </c>
       <c r="C14">
-        <v>23.78631421076592</v>
+        <v>7.420663298864318</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>21.39353000926647</v>
+        <v>18.92998969598344</v>
       </c>
       <c r="F14">
-        <v>52.46899763130647</v>
+        <v>39.19167637503948</v>
       </c>
       <c r="G14">
-        <v>2.001458990103747</v>
+        <v>2.072087780814108</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,22 +1009,22 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>5.276204743202271</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>13.17092149851567</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>18.15148691582322</v>
       </c>
       <c r="N14">
-        <v>9.548729281990832</v>
+        <v>11.2569773182662</v>
       </c>
       <c r="O14">
-        <v>27.21355568740735</v>
+        <v>14.37624268771321</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>32.37235340236231</v>
+        <v>15.27237332695214</v>
       </c>
       <c r="C15">
-        <v>23.64253200959946</v>
+        <v>7.391992155783861</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>21.28157492778513</v>
+        <v>18.81614761628467</v>
       </c>
       <c r="F15">
-        <v>52.18011114750036</v>
+        <v>38.96319309123409</v>
       </c>
       <c r="G15">
-        <v>2.002865595009832</v>
+        <v>2.072630186570028</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,22 +1056,22 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>5.270460726640966</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>13.10670618290276</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>18.05203304480135</v>
       </c>
       <c r="N15">
-        <v>9.591278114995642</v>
+        <v>11.28328104974542</v>
       </c>
       <c r="O15">
-        <v>27.07503489067937</v>
+        <v>14.37096499134448</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31.22597893479488</v>
+        <v>14.78857828239734</v>
       </c>
       <c r="C16">
-        <v>22.80909672954832</v>
+        <v>7.225717183170902</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>20.63454894737514</v>
+        <v>18.15506971686674</v>
       </c>
       <c r="F16">
-        <v>50.52158133637055</v>
+        <v>37.63463543028809</v>
       </c>
       <c r="G16">
-        <v>2.010919221849647</v>
+        <v>2.075756648533488</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,22 +1103,22 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>5.239976088364013</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>12.73303594402319</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>17.47358391590672</v>
       </c>
       <c r="N16">
-        <v>9.834273123086003</v>
+        <v>11.43453600027315</v>
       </c>
       <c r="O16">
-        <v>26.28762299900643</v>
+        <v>14.34644735845045</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>30.51040037587946</v>
+        <v>14.48460509205102</v>
       </c>
       <c r="C17">
-        <v>22.28908937747266</v>
+        <v>7.121966286590281</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>20.23267438191149</v>
+        <v>17.74167368963495</v>
       </c>
       <c r="F17">
-        <v>49.5010801713095</v>
+        <v>36.8022877826839</v>
       </c>
       <c r="G17">
-        <v>2.015858362261201</v>
+        <v>2.077691417716175</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>5.223353387725638</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>12.49872822132587</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>17.11106354919728</v>
       </c>
       <c r="N17">
-        <v>9.982741251491754</v>
+        <v>11.52781758407763</v>
       </c>
       <c r="O17">
-        <v>25.81006840312464</v>
+        <v>14.33637498477382</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>30.0941674296802</v>
+        <v>14.30711490348857</v>
       </c>
       <c r="C18">
-        <v>21.9866897049035</v>
+        <v>7.061655580961558</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>19.99968559718021</v>
+        <v>17.50098235378477</v>
       </c>
       <c r="F18">
-        <v>48.91288431290025</v>
+        <v>36.31710943239618</v>
       </c>
       <c r="G18">
-        <v>2.018700478295688</v>
+        <v>2.078810641513224</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,22 +1197,22 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>5.214521285748876</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>12.36209460110793</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>16.89971374098381</v>
       </c>
       <c r="N18">
-        <v>10.06796925527609</v>
+        <v>11.58166236800749</v>
       </c>
       <c r="O18">
-        <v>25.53734077903407</v>
+        <v>14.33235134344152</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.95242792652135</v>
+        <v>14.24656285175025</v>
       </c>
       <c r="C19">
-        <v>21.88372565297482</v>
+        <v>7.041126816191999</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>19.92048168804563</v>
+        <v>17.41898437013765</v>
       </c>
       <c r="F19">
-        <v>48.71351145068594</v>
+        <v>36.15172494150058</v>
       </c>
       <c r="G19">
-        <v>2.019663147718678</v>
+        <v>2.079190710936831</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,22 +1244,22 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>5.211652846398385</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>12.31551224183268</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>16.82766490114673</v>
       </c>
       <c r="N19">
-        <v>10.09680219829487</v>
+        <v>11.59992722958428</v>
       </c>
       <c r="O19">
-        <v>25.44532896698267</v>
+        <v>14.33128763768489</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.58705357364203</v>
+        <v>14.51723780700795</v>
       </c>
       <c r="C20">
-        <v>22.34478494620891</v>
+        <v>7.133076708159458</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>20.27564473166027</v>
+        <v>17.78598155389614</v>
       </c>
       <c r="F20">
-        <v>49.6098394777112</v>
+        <v>36.89155697731404</v>
       </c>
       <c r="G20">
-        <v>2.015332491794943</v>
+        <v>2.077484801324383</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>5.225046699136475</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>12.52386378100463</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>17.14994765762493</v>
       </c>
       <c r="N20">
-        <v>9.96695501767247</v>
+        <v>11.51786800594783</v>
       </c>
       <c r="O20">
-        <v>25.86070175934502</v>
+        <v>14.33726278127963</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>32.66462495285667</v>
+        <v>15.3950714597394</v>
       </c>
       <c r="C21">
-        <v>23.85509792107824</v>
+        <v>7.434376836637703</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>21.44712025408733</v>
+        <v>18.98442752808341</v>
       </c>
       <c r="F21">
-        <v>52.60747823720492</v>
+        <v>39.30090300329766</v>
       </c>
       <c r="G21">
-        <v>2.00078428924378</v>
+        <v>2.071827995200691</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>5.279003502197496</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>13.20161415857387</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>18.19902790287172</v>
       </c>
       <c r="N21">
-        <v>9.528309068587998</v>
+        <v>11.24437273257666</v>
       </c>
       <c r="O21">
-        <v>27.2800966210086</v>
+        <v>14.37887677975749</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>33.98381273556995</v>
+        <v>15.94546775532026</v>
       </c>
       <c r="C22">
-        <v>24.81496964050772</v>
+        <v>7.625518002277451</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>22.19698482211453</v>
+        <v>19.74244191412159</v>
       </c>
       <c r="F22">
-        <v>54.55845632211948</v>
+        <v>40.81974568026789</v>
       </c>
       <c r="G22">
-        <v>1.991246995005289</v>
+        <v>2.068182960266021</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,22 +1385,22 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>5.321527396087913</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>13.62799847824842</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>18.85988669830988</v>
       </c>
       <c r="N22">
-        <v>9.238932658767606</v>
+        <v>11.0670945300808</v>
       </c>
       <c r="O22">
-        <v>28.33751143111662</v>
+        <v>14.42302569937469</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>33.28312529585066</v>
+        <v>15.65382923301194</v>
       </c>
       <c r="C23">
-        <v>24.305040488773</v>
+        <v>7.52403527381548</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>21.79816906567453</v>
+        <v>19.34014714413547</v>
       </c>
       <c r="F23">
-        <v>53.51775468627375</v>
+        <v>40.01414225038419</v>
       </c>
       <c r="G23">
-        <v>1.996342031184433</v>
+        <v>2.070123873654168</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,22 +1432,22 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>5.298127865751555</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>13.40194096045747</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>18.50941566108069</v>
       </c>
       <c r="N23">
-        <v>9.393688737651528</v>
+        <v>11.16158914588998</v>
       </c>
       <c r="O23">
-        <v>27.72189682157934</v>
+        <v>14.39785383403065</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>30.55241375951824</v>
+        <v>14.50249306929804</v>
       </c>
       <c r="C24">
-        <v>22.31961571950735</v>
+        <v>7.128055750060653</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>20.25622390267843</v>
+        <v>17.76595939684176</v>
       </c>
       <c r="F24">
-        <v>49.56067408149291</v>
+        <v>36.8512191057543</v>
       </c>
       <c r="G24">
-        <v>2.015570229502422</v>
+        <v>2.077578191052194</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,22 +1479,22 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>5.224278904616457</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>12.51250599700989</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>17.13237729008538</v>
       </c>
       <c r="N24">
-        <v>9.974092360910976</v>
+        <v>11.52236553495757</v>
       </c>
       <c r="O24">
-        <v>25.83780475158758</v>
+        <v>14.33685591759646</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.42786626152857</v>
+        <v>13.15901237639817</v>
       </c>
       <c r="C25">
-        <v>20.05068352794736</v>
+        <v>6.676735845271835</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>18.52270687462401</v>
+        <v>15.95608291961305</v>
       </c>
       <c r="F25">
-        <v>45.24531090546436</v>
+        <v>33.19272459126715</v>
       </c>
       <c r="G25">
-        <v>2.036375748307258</v>
+        <v>2.085865920255243</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,22 +1526,22 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>5.172116232837673</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>11.48180508844309</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>15.53829839130977</v>
       </c>
       <c r="N25">
-        <v>10.59427768487515</v>
+        <v>11.918972130387</v>
       </c>
       <c r="O25">
-        <v>23.88221795044793</v>
+        <v>14.33801510837475</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.08081332703488</v>
+        <v>8.919008135648394</v>
       </c>
       <c r="C2">
-        <v>6.324521103180814</v>
+        <v>5.224702408197171</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.6642465270379</v>
+        <v>12.65666093227336</v>
       </c>
       <c r="F2">
-        <v>30.27884324296193</v>
+        <v>16.86991607391245</v>
       </c>
       <c r="G2">
-        <v>2.092206016046894</v>
+        <v>3.637179407437194</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>10.6616405728552</v>
+        <v>8.203292644561094</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>14.26861591776022</v>
+        <v>13.52572405511802</v>
       </c>
       <c r="N2">
-        <v>12.21863598302833</v>
+        <v>18.7286439175631</v>
       </c>
       <c r="O2">
-        <v>14.39002032727703</v>
+        <v>22.10656030117271</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.29386857656418</v>
+        <v>8.662430786648367</v>
       </c>
       <c r="C3">
-        <v>6.074062359577328</v>
+        <v>5.123336841014574</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.78066822696156</v>
+        <v>12.43270288794568</v>
       </c>
       <c r="F3">
-        <v>28.16301984326747</v>
+        <v>15.89584955866815</v>
       </c>
       <c r="G3">
-        <v>2.096662835722254</v>
+        <v>3.638829452682554</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>10.06792834101908</v>
+        <v>8.035691987721417</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.34726263368466</v>
+        <v>13.36373318392015</v>
       </c>
       <c r="N3">
-        <v>12.42705672040348</v>
+        <v>18.79073583527846</v>
       </c>
       <c r="O3">
-        <v>14.45398136627188</v>
+        <v>22.18856529323418</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.78273983143652</v>
+        <v>8.502631965821045</v>
       </c>
       <c r="C4">
-        <v>5.914770307093113</v>
+        <v>5.059441136266366</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.22089302857776</v>
+        <v>12.29750614191613</v>
       </c>
       <c r="F4">
-        <v>26.79314218379242</v>
+        <v>15.26997757108489</v>
       </c>
       <c r="G4">
-        <v>2.099481894450943</v>
+        <v>3.639895973291792</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>9.68493268976593</v>
+        <v>7.932351903172238</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>12.75126425724241</v>
+        <v>13.26656067721565</v>
       </c>
       <c r="N4">
-        <v>12.55783363164117</v>
+        <v>18.83064378844361</v>
       </c>
       <c r="O4">
-        <v>14.50638137705436</v>
+        <v>22.24358680610488</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.56740069094511</v>
+        <v>8.437049022182631</v>
       </c>
       <c r="C5">
-        <v>5.848524603043328</v>
+        <v>5.033006851033083</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.98864678286018</v>
+        <v>12.24307613344562</v>
       </c>
       <c r="F5">
-        <v>26.21694803853475</v>
+        <v>15.008197319934</v>
       </c>
       <c r="G5">
-        <v>2.100651940652581</v>
+        <v>3.640344055342174</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>9.524269410305291</v>
+        <v>7.890189716716403</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>12.50074861554761</v>
+        <v>13.22758391562424</v>
       </c>
       <c r="N5">
-        <v>12.61185579202555</v>
+        <v>18.84735637855539</v>
       </c>
       <c r="O5">
-        <v>14.53088506501386</v>
+        <v>22.26718046601945</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.53121738631339</v>
+        <v>8.42613420084639</v>
       </c>
       <c r="C6">
-        <v>5.837445740421911</v>
+        <v>5.028594138306354</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.94983987018845</v>
+        <v>12.23408053558174</v>
       </c>
       <c r="F6">
-        <v>26.1201820470107</v>
+        <v>14.96433081551589</v>
       </c>
       <c r="G6">
-        <v>2.100847523955436</v>
+        <v>3.640419273584785</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>9.497316009025011</v>
+        <v>7.883187421565226</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>12.45868859213513</v>
+        <v>13.22115072596437</v>
       </c>
       <c r="N6">
-        <v>12.62087087174907</v>
+        <v>18.85015869670284</v>
       </c>
       <c r="O6">
-        <v>14.53513981410941</v>
+        <v>22.27116888745825</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.77986426595604</v>
+        <v>8.501749225752816</v>
       </c>
       <c r="C7">
-        <v>5.913882216059761</v>
+        <v>5.059086211113027</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.21777730002403</v>
+        <v>12.29676928475996</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>15.26647399323133</v>
       </c>
       <c r="G7">
-        <v>2.099497587390761</v>
+        <v>3.639901961703028</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>9.682784432149266</v>
+        <v>7.931783414267225</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>12.74791668320152</v>
+        <v>13.26603244559262</v>
       </c>
       <c r="N7">
-        <v>12.55855920869076</v>
+        <v>18.83086735736002</v>
       </c>
       <c r="O7">
-        <v>14.50669928360945</v>
+        <v>22.24390025648781</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.81525808202584</v>
+        <v>8.831069856563477</v>
       </c>
       <c r="C8">
-        <v>6.239335434116784</v>
+        <v>5.190107345798806</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.36327738631298</v>
+        <v>12.57900910086885</v>
       </c>
       <c r="F8">
-        <v>29.56389055882486</v>
+        <v>16.5399640634477</v>
       </c>
       <c r="G8">
-        <v>2.093725900753658</v>
+        <v>3.637737287975349</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>10.4607844875314</v>
+        <v>8.145628333887059</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.95719962341356</v>
+        <v>13.46942206412236</v>
       </c>
       <c r="N8">
-        <v>12.28993193353096</v>
+        <v>18.74968391570397</v>
       </c>
       <c r="O8">
-        <v>14.40925763734407</v>
+        <v>22.13386491268468</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.62528772982512</v>
+        <v>9.454687985511194</v>
       </c>
       <c r="C9">
-        <v>6.831928569208495</v>
+        <v>5.433050621074254</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.58102578159949</v>
+        <v>13.14723557912611</v>
       </c>
       <c r="F9">
-        <v>34.4587799414611</v>
+        <v>19.00274580682531</v>
       </c>
       <c r="G9">
-        <v>2.083038860050751</v>
+        <v>3.633914050796732</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>11.83853591658096</v>
+        <v>8.559063251261676</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>16.09002273584075</v>
+        <v>13.8843775200867</v>
       </c>
       <c r="N9">
-        <v>11.78426615807473</v>
+        <v>18.60456982986504</v>
       </c>
       <c r="O9">
-        <v>14.32924979396475</v>
+        <v>21.95524702833527</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.82290527227935</v>
+        <v>9.894143288057071</v>
       </c>
       <c r="C10">
-        <v>7.237469260761883</v>
+        <v>5.601960357270194</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.20184821860589</v>
+        <v>13.56891731672967</v>
       </c>
       <c r="F10">
-        <v>37.72874519847217</v>
+        <v>20.67494806633232</v>
       </c>
       <c r="G10">
-        <v>2.075536728287656</v>
+        <v>3.63135950318925</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>12.75951932720661</v>
+        <v>8.856037907764062</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>17.51456709803108</v>
+        <v>14.19625453519216</v>
       </c>
       <c r="N10">
-        <v>11.42391710565602</v>
+        <v>18.50645232817607</v>
       </c>
       <c r="O10">
-        <v>14.34784055600535</v>
+        <v>21.84681387040371</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.33955310508773</v>
+        <v>10.08904477752217</v>
       </c>
       <c r="C11">
-        <v>7.415188164371053</v>
+        <v>5.676520131961047</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.90825300206486</v>
+        <v>13.76068159219125</v>
       </c>
       <c r="F11">
-        <v>39.14805722232856</v>
+        <v>21.3917225636224</v>
       </c>
       <c r="G11">
-        <v>2.072191436820217</v>
+        <v>3.630252039567652</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>13.15866351583057</v>
+        <v>8.989047972031134</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>18.13250109037749</v>
+        <v>14.3390570718402</v>
       </c>
       <c r="N11">
-        <v>11.2620054702869</v>
+        <v>18.46364222390167</v>
       </c>
       <c r="O11">
-        <v>14.37521087333741</v>
+        <v>21.80246501609464</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.53119192688782</v>
+        <v>10.16205882279117</v>
       </c>
       <c r="C12">
-        <v>7.481496279554165</v>
+        <v>5.704410976853926</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.17141334736702</v>
+        <v>13.8332105580082</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>21.65686569030329</v>
       </c>
       <c r="G12">
-        <v>2.070933634391508</v>
+        <v>3.629840482024248</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>13.30696753842862</v>
+        <v>9.03906777539412</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>18.36224218357986</v>
+        <v>14.39321640345716</v>
       </c>
       <c r="N12">
-        <v>11.20094775738106</v>
+        <v>18.44769203059638</v>
       </c>
       <c r="O12">
-        <v>14.38846984446467</v>
+        <v>21.78638951988322</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.49009644562114</v>
+        <v>10.14637016946272</v>
       </c>
       <c r="C13">
-        <v>7.467259901008553</v>
+        <v>5.698419692650676</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.11492827886073</v>
+        <v>13.81759528806346</v>
       </c>
       <c r="F13">
-        <v>39.5626640325822</v>
+        <v>21.60004134736742</v>
       </c>
       <c r="G13">
-        <v>2.071204136857754</v>
+        <v>3.629928771343436</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>13.27515389230221</v>
+        <v>9.028311340511845</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>18.31295146013975</v>
+        <v>14.38154931886026</v>
       </c>
       <c r="N13">
-        <v>11.21408687891276</v>
+        <v>18.4511155986902</v>
       </c>
       <c r="O13">
-        <v>14.38548277642712</v>
+        <v>21.78981967094903</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.35539933949813</v>
+        <v>10.09506791821031</v>
       </c>
       <c r="C14">
-        <v>7.420663298864318</v>
+        <v>5.678821695495684</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.92998969598344</v>
+        <v>13.76665079977047</v>
       </c>
       <c r="F14">
-        <v>39.19167637503948</v>
+        <v>21.4136618050453</v>
       </c>
       <c r="G14">
-        <v>2.072087780814108</v>
+        <v>3.630218024077697</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>13.17092149851567</v>
+        <v>8.993170376379362</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>18.15148691582322</v>
+        <v>14.34351141247288</v>
       </c>
       <c r="N14">
-        <v>11.2569773182662</v>
+        <v>18.46232476679565</v>
       </c>
       <c r="O14">
-        <v>14.37624268771321</v>
+        <v>21.80112806161693</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.27237332695214</v>
+        <v>10.06353882869422</v>
       </c>
       <c r="C15">
-        <v>7.391992155783861</v>
+        <v>5.66677219725958</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.81614761628467</v>
+        <v>13.73543207311252</v>
       </c>
       <c r="F15">
-        <v>38.96319309123409</v>
+        <v>21.29868154950795</v>
       </c>
       <c r="G15">
-        <v>2.072630186570028</v>
+        <v>3.630396216325892</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>13.10670618290276</v>
+        <v>8.97159878925792</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>18.05203304480135</v>
+        <v>14.32022143938384</v>
       </c>
       <c r="N15">
-        <v>11.28328104974542</v>
+        <v>18.46922466783462</v>
       </c>
       <c r="O15">
-        <v>14.37096499134448</v>
+        <v>21.80814841828189</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.78857828239734</v>
+        <v>9.881299027369105</v>
       </c>
       <c r="C16">
-        <v>7.225717183170902</v>
+        <v>5.597040489146337</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.15506971686674</v>
+        <v>13.55637699722755</v>
       </c>
       <c r="F16">
-        <v>37.63463543028809</v>
+        <v>20.62722412089977</v>
       </c>
       <c r="G16">
-        <v>2.075756648533488</v>
+        <v>3.631432974205866</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>12.73303594402319</v>
+        <v>8.847299222901942</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>17.47358391590672</v>
+        <v>14.18693640783008</v>
       </c>
       <c r="N16">
-        <v>11.43453600027315</v>
+        <v>18.50928666805958</v>
       </c>
       <c r="O16">
-        <v>14.34644735845045</v>
+        <v>21.8498125673005</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.48460509205102</v>
+        <v>9.768165424682232</v>
       </c>
       <c r="C17">
-        <v>7.121966286590281</v>
+        <v>5.553667321900947</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.74167368963495</v>
+        <v>13.44645952226042</v>
       </c>
       <c r="F17">
-        <v>36.8022877826839</v>
+        <v>20.20408069597325</v>
       </c>
       <c r="G17">
-        <v>2.077691417716175</v>
+        <v>3.632082951855718</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>12.49872822132587</v>
+        <v>8.770476011119035</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>17.11106354919728</v>
+        <v>14.1053720116806</v>
       </c>
       <c r="N17">
-        <v>11.52781758407763</v>
+        <v>18.53432970875047</v>
       </c>
       <c r="O17">
-        <v>14.33637498477382</v>
+        <v>21.87664903120265</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30711490348857</v>
+        <v>9.702626275749848</v>
       </c>
       <c r="C18">
-        <v>7.061655580961558</v>
+        <v>5.52850666725953</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.50098235378477</v>
+        <v>13.38323672078672</v>
       </c>
       <c r="F18">
-        <v>36.31710943239618</v>
+        <v>19.95656407809801</v>
       </c>
       <c r="G18">
-        <v>2.078810641513224</v>
+        <v>3.63246194450794</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>12.36209460110793</v>
+        <v>8.726095764708869</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>16.89971374098381</v>
+        <v>14.05854866110504</v>
       </c>
       <c r="N18">
-        <v>11.58166236800749</v>
+        <v>18.54890556343169</v>
       </c>
       <c r="O18">
-        <v>14.33235134344152</v>
+        <v>21.89255304796465</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.24656285175025</v>
+        <v>9.680357786048614</v>
       </c>
       <c r="C19">
-        <v>7.041126816191999</v>
+        <v>5.519951520882386</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.41898437013765</v>
+        <v>13.36183283166784</v>
       </c>
       <c r="F19">
-        <v>36.15172494150058</v>
+        <v>19.87204792380568</v>
       </c>
       <c r="G19">
-        <v>2.079190710936831</v>
+        <v>3.632591149345833</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>12.31551224183268</v>
+        <v>8.711037654492886</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>16.82766490114673</v>
+        <v>14.04271214046162</v>
       </c>
       <c r="N19">
-        <v>11.59992722958428</v>
+        <v>18.55387023502392</v>
       </c>
       <c r="O19">
-        <v>14.33128763768489</v>
+        <v>21.8980182405789</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.51723780700795</v>
+        <v>9.78025762802749</v>
       </c>
       <c r="C20">
-        <v>7.133076708159458</v>
+        <v>5.558306689305057</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.78598155389614</v>
+        <v>13.4581611313502</v>
       </c>
       <c r="F20">
-        <v>36.89155697731404</v>
+        <v>20.24955283636154</v>
       </c>
       <c r="G20">
-        <v>2.077484801324383</v>
+        <v>3.632013228653991</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>12.52386378100463</v>
+        <v>8.778674366719546</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>17.14994765762493</v>
+        <v>14.11404569901064</v>
       </c>
       <c r="N20">
-        <v>11.51786800594783</v>
+        <v>18.53164606673474</v>
       </c>
       <c r="O20">
-        <v>14.33726278127963</v>
+        <v>21.8737437476797</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.3950714597394</v>
+        <v>10.11015862699388</v>
       </c>
       <c r="C21">
-        <v>7.434376836637703</v>
+        <v>5.68458753997971</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.98442752808341</v>
+        <v>13.78161743448706</v>
       </c>
       <c r="F21">
-        <v>39.30090300329766</v>
+        <v>21.46857628470577</v>
       </c>
       <c r="G21">
-        <v>2.071827995200691</v>
+        <v>3.630132851747975</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>13.20161415857387</v>
+        <v>9.003501950267047</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>18.19902790287172</v>
+        <v>14.35468220923308</v>
       </c>
       <c r="N21">
-        <v>11.24437273257666</v>
+        <v>18.45902528695611</v>
       </c>
       <c r="O21">
-        <v>14.37887677975749</v>
+        <v>21.79778699387099</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.94546775532026</v>
+        <v>10.32112996573657</v>
       </c>
       <c r="C22">
-        <v>7.625518002277451</v>
+        <v>5.765111695022359</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.74244191412159</v>
+        <v>13.992467528221</v>
       </c>
       <c r="F22">
-        <v>40.81974568026789</v>
+        <v>22.22866616901552</v>
       </c>
       <c r="G22">
-        <v>2.068182960266021</v>
+        <v>3.628949450340969</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>13.62799847824842</v>
+        <v>9.148389814838625</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>18.85988669830988</v>
+        <v>14.51241379392213</v>
       </c>
       <c r="N22">
-        <v>11.0670945300808</v>
+        <v>18.41308452739844</v>
       </c>
       <c r="O22">
-        <v>14.42302569937469</v>
+        <v>21.75233373506873</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.65382923301194</v>
+        <v>10.20897653780795</v>
       </c>
       <c r="C23">
-        <v>7.52403527381548</v>
+        <v>5.722323056295757</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.34014714413547</v>
+        <v>13.88000825300517</v>
       </c>
       <c r="F23">
-        <v>40.01414225038419</v>
+        <v>21.82633154458858</v>
       </c>
       <c r="G23">
-        <v>2.070123873654168</v>
+        <v>3.629576900214835</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>13.40194096045747</v>
+        <v>9.071263190231015</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>18.50941566108069</v>
+        <v>14.42820364025024</v>
       </c>
       <c r="N23">
-        <v>11.16158914588998</v>
+        <v>18.43746519669569</v>
       </c>
       <c r="O23">
-        <v>14.39785383403065</v>
+        <v>21.77620885811531</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.50249306929804</v>
+        <v>9.774792285907015</v>
       </c>
       <c r="C24">
-        <v>7.128055750060653</v>
+        <v>5.556209930457812</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.76595939684176</v>
+        <v>13.45287092057952</v>
       </c>
       <c r="F24">
-        <v>36.8512191057543</v>
+        <v>20.22900810905287</v>
       </c>
       <c r="G24">
-        <v>2.077578191052194</v>
+        <v>3.632044733964353</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>12.51250599700989</v>
+        <v>8.77496855161859</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>17.13237729008538</v>
+        <v>14.1101241058521</v>
       </c>
       <c r="N24">
-        <v>11.52236553495757</v>
+        <v>18.53285878585573</v>
       </c>
       <c r="O24">
-        <v>14.33685591759646</v>
+        <v>21.87505574576806</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.15901237639817</v>
+        <v>9.288921773720878</v>
       </c>
       <c r="C25">
-        <v>6.676735845271835</v>
+        <v>5.368938477639198</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.95608291961305</v>
+        <v>12.99243535450638</v>
       </c>
       <c r="F25">
-        <v>33.19272459126715</v>
+        <v>18.34778573295695</v>
       </c>
       <c r="G25">
-        <v>2.085865920255243</v>
+        <v>3.634903472394786</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>11.48180508844309</v>
+        <v>8.448188267806792</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>15.53829839130977</v>
+        <v>13.77068557623288</v>
       </c>
       <c r="N25">
-        <v>11.918972130387</v>
+        <v>18.64232829514189</v>
       </c>
       <c r="O25">
-        <v>14.33801510837475</v>
+        <v>21.99957462633357</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>8.919008135648394</v>
+        <v>12.08081332703486</v>
       </c>
       <c r="C2">
-        <v>5.224702408197171</v>
+        <v>6.324521103181027</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>12.65666093227336</v>
+        <v>14.66424652703792</v>
       </c>
       <c r="F2">
-        <v>16.86991607391245</v>
+        <v>30.27884324296195</v>
       </c>
       <c r="G2">
-        <v>3.637179407437194</v>
+        <v>2.092206016047027</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,19 +448,19 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.203292644561094</v>
+        <v>10.66164057285524</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>13.52572405511802</v>
+        <v>14.26861591776021</v>
       </c>
       <c r="N2">
-        <v>18.7286439175631</v>
+        <v>12.2186359830283</v>
       </c>
       <c r="O2">
-        <v>22.10656030117271</v>
+        <v>14.39002032727695</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>8.662430786648367</v>
+        <v>11.29386857656414</v>
       </c>
       <c r="C3">
-        <v>5.123336841014574</v>
+        <v>6.074062359577438</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>12.43270288794568</v>
+        <v>13.78066822696154</v>
       </c>
       <c r="F3">
-        <v>15.89584955866815</v>
+        <v>28.1630198432675</v>
       </c>
       <c r="G3">
-        <v>3.638829452682554</v>
+        <v>2.096662835722388</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,19 +495,19 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>8.035691987721417</v>
+        <v>10.06792834101907</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>13.36373318392015</v>
+        <v>13.34726263368464</v>
       </c>
       <c r="N3">
-        <v>18.79073583527846</v>
+        <v>12.42705672040361</v>
       </c>
       <c r="O3">
-        <v>22.18856529323418</v>
+        <v>14.45398136627202</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>8.502631965821045</v>
+        <v>10.78273983143657</v>
       </c>
       <c r="C4">
-        <v>5.059441136266366</v>
+        <v>5.914770307093113</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>12.29750614191613</v>
+        <v>13.22089302857775</v>
       </c>
       <c r="F4">
-        <v>15.26997757108489</v>
+        <v>26.79314218379246</v>
       </c>
       <c r="G4">
-        <v>3.639895973291792</v>
+        <v>2.099481894450943</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,19 +542,19 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>7.932351903172238</v>
+        <v>9.684932689765958</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>13.26656067721565</v>
+        <v>12.75126425724246</v>
       </c>
       <c r="N4">
-        <v>18.83064378844361</v>
+        <v>12.55783363164121</v>
       </c>
       <c r="O4">
-        <v>22.24358680610488</v>
+        <v>14.50638137705436</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>8.437049022182631</v>
+        <v>10.56740069094512</v>
       </c>
       <c r="C5">
-        <v>5.033006851033083</v>
+        <v>5.848524603043215</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.24307613344562</v>
+        <v>12.98864678286018</v>
       </c>
       <c r="F5">
-        <v>15.008197319934</v>
+        <v>26.2169480385347</v>
       </c>
       <c r="G5">
-        <v>3.640344055342174</v>
+        <v>2.100651940652579</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,19 +589,19 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>7.890189716716403</v>
+        <v>9.524269410305269</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>13.22758391562424</v>
+        <v>12.50074861554758</v>
       </c>
       <c r="N5">
-        <v>18.84735637855539</v>
+        <v>12.61185579202558</v>
       </c>
       <c r="O5">
-        <v>22.26718046601945</v>
+        <v>14.53088506501395</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>8.42613420084639</v>
+        <v>10.53121738631333</v>
       </c>
       <c r="C6">
-        <v>5.028594138306354</v>
+        <v>5.8374457404219</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.23408053558174</v>
+        <v>12.94983987018843</v>
       </c>
       <c r="F6">
-        <v>14.96433081551589</v>
+        <v>26.12018204701072</v>
       </c>
       <c r="G6">
-        <v>3.640419273584785</v>
+        <v>2.100847523955435</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,19 +636,19 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>7.883187421565226</v>
+        <v>9.497316009024964</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>13.22115072596437</v>
+        <v>12.4586885921351</v>
       </c>
       <c r="N6">
-        <v>18.85015869670284</v>
+        <v>12.6208708717491</v>
       </c>
       <c r="O6">
-        <v>22.27116888745825</v>
+        <v>14.53513981410952</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>8.501749225752816</v>
+        <v>10.77986426595609</v>
       </c>
       <c r="C7">
-        <v>5.059086211113027</v>
+        <v>5.913882216059773</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>12.29676928475996</v>
+        <v>13.21777730002403</v>
       </c>
       <c r="F7">
-        <v>15.26647399323133</v>
+        <v>26.78544435617556</v>
       </c>
       <c r="G7">
-        <v>3.639901961703028</v>
+        <v>2.099497587390895</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,19 +683,19 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>7.931783414267225</v>
+        <v>9.68278443214929</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>13.26603244559262</v>
+        <v>12.74791668320155</v>
       </c>
       <c r="N7">
-        <v>18.83086735736002</v>
+        <v>12.55855920869076</v>
       </c>
       <c r="O7">
-        <v>22.24390025648781</v>
+        <v>14.50669928360939</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8.831069856563477</v>
+        <v>11.81525808202576</v>
       </c>
       <c r="C8">
-        <v>5.190107345798806</v>
+        <v>6.239335434117034</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>12.57900910086885</v>
+        <v>14.363277386313</v>
       </c>
       <c r="F8">
-        <v>16.5399640634477</v>
+        <v>29.56389055882491</v>
       </c>
       <c r="G8">
-        <v>3.637737287975349</v>
+        <v>2.093725900753926</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,19 +730,19 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.145628333887059</v>
+        <v>10.46078448753142</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>13.46942206412236</v>
+        <v>13.95719962341355</v>
       </c>
       <c r="N8">
-        <v>18.74968391570397</v>
+        <v>12.28993193353092</v>
       </c>
       <c r="O8">
-        <v>22.13386491268468</v>
+        <v>14.40925763734398</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9.454687985511194</v>
+        <v>13.62528772982516</v>
       </c>
       <c r="C9">
-        <v>5.433050621074254</v>
+        <v>6.831928569208276</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>13.14723557912611</v>
+        <v>16.58102578159949</v>
       </c>
       <c r="F9">
-        <v>19.00274580682531</v>
+        <v>34.45877994146107</v>
       </c>
       <c r="G9">
-        <v>3.633914050796732</v>
+        <v>2.083038860050619</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,19 +777,19 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.559063251261676</v>
+        <v>11.83853591658095</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>13.8843775200867</v>
+        <v>16.09002273584074</v>
       </c>
       <c r="N9">
-        <v>18.60456982986504</v>
+        <v>11.78426615807473</v>
       </c>
       <c r="O9">
-        <v>21.95524702833527</v>
+        <v>14.32924979396475</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>9.894143288057071</v>
+        <v>14.82290527227932</v>
       </c>
       <c r="C10">
-        <v>5.601960357270194</v>
+        <v>7.237469260761782</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.56891731672967</v>
+        <v>18.20184821860594</v>
       </c>
       <c r="F10">
-        <v>20.67494806633232</v>
+        <v>37.72874519847221</v>
       </c>
       <c r="G10">
-        <v>3.63135950318925</v>
+        <v>2.075536728287526</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,19 +824,19 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.856037907764062</v>
+        <v>12.75951932720658</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>14.19625453519216</v>
+        <v>17.51456709803109</v>
       </c>
       <c r="N10">
-        <v>18.50645232817607</v>
+        <v>11.42391710565588</v>
       </c>
       <c r="O10">
-        <v>21.84681387040371</v>
+        <v>14.34784055600531</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>10.08904477752217</v>
+        <v>15.33955310508786</v>
       </c>
       <c r="C11">
-        <v>5.676520131961047</v>
+        <v>7.415188164370583</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.76068159219125</v>
+        <v>18.90825300206491</v>
       </c>
       <c r="F11">
-        <v>21.3917225636224</v>
+        <v>39.1480572223286</v>
       </c>
       <c r="G11">
-        <v>3.630252039567652</v>
+        <v>2.07219143681995</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,19 +871,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.989047972031134</v>
+        <v>13.15866351583058</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>14.3390570718402</v>
+        <v>18.13250109037753</v>
       </c>
       <c r="N11">
-        <v>18.46364222390167</v>
+        <v>11.26200547028679</v>
       </c>
       <c r="O11">
-        <v>21.80246501609464</v>
+        <v>14.37521087333737</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>10.16205882279117</v>
+        <v>15.53119192688789</v>
       </c>
       <c r="C12">
-        <v>5.704410976853926</v>
+        <v>7.481496279554177</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>13.8332105580082</v>
+        <v>19.17141334736708</v>
       </c>
       <c r="F12">
-        <v>21.65686569030329</v>
+        <v>39.67592721363786</v>
       </c>
       <c r="G12">
-        <v>3.629840482024248</v>
+        <v>2.070933634391508</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,19 +918,19 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>9.03906777539412</v>
+        <v>13.30696753842866</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>14.39321640345716</v>
+        <v>18.36224218357992</v>
       </c>
       <c r="N12">
-        <v>18.44769203059638</v>
+        <v>11.20094775738099</v>
       </c>
       <c r="O12">
-        <v>21.78638951988322</v>
+        <v>14.38846984446462</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>10.14637016946272</v>
+        <v>15.49009644562113</v>
       </c>
       <c r="C13">
-        <v>5.698419692650676</v>
+        <v>7.46725990100854</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>13.81759528806346</v>
+        <v>19.11492827886072</v>
       </c>
       <c r="F13">
-        <v>21.60004134736742</v>
+        <v>39.56266403258223</v>
       </c>
       <c r="G13">
-        <v>3.629928771343436</v>
+        <v>2.071204136857622</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,19 +965,19 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>9.028311340511845</v>
+        <v>13.27515389230219</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>14.38154931886026</v>
+        <v>18.31295146013973</v>
       </c>
       <c r="N13">
-        <v>18.4511155986902</v>
+        <v>11.21408687891286</v>
       </c>
       <c r="O13">
-        <v>21.78981967094903</v>
+        <v>14.38548277642727</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>10.09506791821031</v>
+        <v>15.3553993394982</v>
       </c>
       <c r="C14">
-        <v>5.678821695495684</v>
+        <v>7.420663298864231</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.76665079977047</v>
+        <v>18.92998969598347</v>
       </c>
       <c r="F14">
-        <v>21.4136618050453</v>
+        <v>39.19167637503946</v>
       </c>
       <c r="G14">
-        <v>3.630218024077697</v>
+        <v>2.072087780813975</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,19 +1012,19 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.993170376379362</v>
+        <v>13.17092149851566</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>14.34351141247288</v>
+        <v>18.15148691582324</v>
       </c>
       <c r="N14">
-        <v>18.46232476679565</v>
+        <v>11.25697731826607</v>
       </c>
       <c r="O14">
-        <v>21.80112806161693</v>
+        <v>14.37624268771309</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>10.06353882869422</v>
+        <v>15.27237332695209</v>
       </c>
       <c r="C15">
-        <v>5.66677219725958</v>
+        <v>7.391992155783663</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.73543207311252</v>
+        <v>18.81614761628469</v>
       </c>
       <c r="F15">
-        <v>21.29868154950795</v>
+        <v>38.96319309123407</v>
       </c>
       <c r="G15">
-        <v>3.630396216325892</v>
+        <v>2.072630186569893</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,19 +1059,19 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.97159878925792</v>
+        <v>13.10670618290269</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>14.32022143938384</v>
+        <v>18.05203304480133</v>
       </c>
       <c r="N15">
-        <v>18.46922466783462</v>
+        <v>11.28328104974542</v>
       </c>
       <c r="O15">
-        <v>21.80814841828189</v>
+        <v>14.37096499134456</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>9.881299027369105</v>
+        <v>14.78857828239735</v>
       </c>
       <c r="C16">
-        <v>5.597040489146337</v>
+        <v>7.225717183170914</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.55637699722755</v>
+        <v>18.15506971686677</v>
       </c>
       <c r="F16">
-        <v>20.62722412089977</v>
+        <v>37.63463543028808</v>
       </c>
       <c r="G16">
-        <v>3.631432974205866</v>
+        <v>2.075756648533755</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,19 +1106,19 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.847299222901942</v>
+        <v>12.73303594402322</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>14.18693640783008</v>
+        <v>17.47358391590676</v>
       </c>
       <c r="N16">
-        <v>18.50928666805958</v>
+        <v>11.43453600027308</v>
       </c>
       <c r="O16">
-        <v>21.8498125673005</v>
+        <v>14.34644735845034</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>9.768165424682232</v>
+        <v>14.48460509205102</v>
       </c>
       <c r="C17">
-        <v>5.553667321900947</v>
+        <v>7.121966286590344</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>13.44645952226042</v>
+        <v>17.74167368963497</v>
       </c>
       <c r="F17">
-        <v>20.20408069597325</v>
+        <v>36.80228778268388</v>
       </c>
       <c r="G17">
-        <v>3.632082951855718</v>
+        <v>2.077691417716308</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,19 +1153,19 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.770476011119035</v>
+        <v>12.49872822132589</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>14.1053720116806</v>
+        <v>17.1110635491973</v>
       </c>
       <c r="N17">
-        <v>18.53432970875047</v>
+        <v>11.52781758407767</v>
       </c>
       <c r="O17">
-        <v>21.87664903120265</v>
+        <v>14.33637498477384</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>9.702626275749848</v>
+        <v>14.30711490348852</v>
       </c>
       <c r="C18">
-        <v>5.52850666725953</v>
+        <v>7.061655580961787</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>13.38323672078672</v>
+        <v>17.50098235378482</v>
       </c>
       <c r="F18">
-        <v>19.95656407809801</v>
+        <v>36.31710943239619</v>
       </c>
       <c r="G18">
-        <v>3.63246194450794</v>
+        <v>2.078810641513357</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,19 +1200,19 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.726095764708869</v>
+        <v>12.36209460110796</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>14.05854866110504</v>
+        <v>16.89971374098386</v>
       </c>
       <c r="N18">
-        <v>18.54890556343169</v>
+        <v>11.58166236800749</v>
       </c>
       <c r="O18">
-        <v>21.89255304796465</v>
+        <v>14.33235134344147</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>9.680357786048614</v>
+        <v>14.24656285175029</v>
       </c>
       <c r="C19">
-        <v>5.519951520882386</v>
+        <v>7.041126816192025</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>13.36183283166784</v>
+        <v>17.41898437013768</v>
       </c>
       <c r="F19">
-        <v>19.87204792380568</v>
+        <v>36.15172494150059</v>
       </c>
       <c r="G19">
-        <v>3.632591149345833</v>
+        <v>2.079190710936832</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,19 +1247,19 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.711037654492886</v>
+        <v>12.31551224183271</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>14.04271214046162</v>
+        <v>16.82766490114675</v>
       </c>
       <c r="N19">
-        <v>18.55387023502392</v>
+        <v>11.59992722958422</v>
       </c>
       <c r="O19">
-        <v>21.8980182405789</v>
+        <v>14.33128763768477</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>9.78025762802749</v>
+        <v>14.51723780700793</v>
       </c>
       <c r="C20">
-        <v>5.558306689305057</v>
+        <v>7.133076708159572</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>13.4581611313502</v>
+        <v>17.78598155389612</v>
       </c>
       <c r="F20">
-        <v>20.24955283636154</v>
+        <v>36.89155697731402</v>
       </c>
       <c r="G20">
-        <v>3.632013228653991</v>
+        <v>2.077484801324918</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,19 +1294,19 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.778674366719546</v>
+        <v>12.52386378100469</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>14.11404569901064</v>
+        <v>17.14994765762492</v>
       </c>
       <c r="N20">
-        <v>18.53164606673474</v>
+        <v>11.51786800594772</v>
       </c>
       <c r="O20">
-        <v>21.8737437476797</v>
+        <v>14.33726278127948</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>10.11015862699388</v>
+        <v>15.39507145973938</v>
       </c>
       <c r="C21">
-        <v>5.68458753997971</v>
+        <v>7.434376836637689</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.78161743448706</v>
+        <v>18.9844275280834</v>
       </c>
       <c r="F21">
-        <v>21.46857628470577</v>
+        <v>39.30090300329761</v>
       </c>
       <c r="G21">
-        <v>3.630132851747975</v>
+        <v>2.071827995200558</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,19 +1341,19 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>9.003501950267047</v>
+        <v>13.20161415857384</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>14.35468220923308</v>
+        <v>18.1990279028717</v>
       </c>
       <c r="N21">
-        <v>18.45902528695611</v>
+        <v>11.24437273257669</v>
       </c>
       <c r="O21">
-        <v>21.79778699387099</v>
+        <v>14.37887677975748</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>10.32112996573657</v>
+        <v>15.94546775532025</v>
       </c>
       <c r="C22">
-        <v>5.765111695022359</v>
+        <v>7.62551800227748</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>13.992467528221</v>
+        <v>19.74244191412156</v>
       </c>
       <c r="F22">
-        <v>22.22866616901552</v>
+        <v>40.81974568026784</v>
       </c>
       <c r="G22">
-        <v>3.628949450340969</v>
+        <v>2.068182960266156</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,19 +1388,19 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>9.148389814838625</v>
+        <v>13.62799847824845</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>14.51241379392213</v>
+        <v>18.85988669830989</v>
       </c>
       <c r="N22">
-        <v>18.41308452739844</v>
+        <v>11.06709453008073</v>
       </c>
       <c r="O22">
-        <v>21.75233373506873</v>
+        <v>14.42302569937461</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>10.20897653780795</v>
+        <v>15.65382923301195</v>
       </c>
       <c r="C23">
-        <v>5.722323056295757</v>
+        <v>7.52403527381538</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>13.88000825300517</v>
+        <v>19.34014714413544</v>
       </c>
       <c r="F23">
-        <v>21.82633154458858</v>
+        <v>40.01414225038427</v>
       </c>
       <c r="G23">
-        <v>3.629576900214835</v>
+        <v>2.070123873654169</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,19 +1435,19 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>9.071263190231015</v>
+        <v>13.40194096045744</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>14.42820364025024</v>
+        <v>18.50941566108065</v>
       </c>
       <c r="N23">
-        <v>18.43746519669569</v>
+        <v>11.16158914589002</v>
       </c>
       <c r="O23">
-        <v>21.77620885811531</v>
+        <v>14.39785383403074</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>9.774792285907015</v>
+        <v>14.50249306929806</v>
       </c>
       <c r="C24">
-        <v>5.556209930457812</v>
+        <v>7.128055750060766</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>13.45287092057952</v>
+        <v>17.76595939684172</v>
       </c>
       <c r="F24">
-        <v>20.22900810905287</v>
+        <v>36.8512191057544</v>
       </c>
       <c r="G24">
-        <v>3.632044733964353</v>
+        <v>2.077578191052194</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,19 +1482,19 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.77496855161859</v>
+        <v>12.51250599700993</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>14.1101241058521</v>
+        <v>17.1323772900854</v>
       </c>
       <c r="N24">
-        <v>18.53285878585573</v>
+        <v>11.52236553495764</v>
       </c>
       <c r="O24">
-        <v>21.87505574576806</v>
+        <v>14.33685591759651</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>9.288921773720878</v>
+        <v>13.15901237639827</v>
       </c>
       <c r="C25">
-        <v>5.368938477639198</v>
+        <v>6.67673584527165</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>12.99243535450638</v>
+        <v>15.95608291961305</v>
       </c>
       <c r="F25">
-        <v>18.34778573295695</v>
+        <v>33.19272459126714</v>
       </c>
       <c r="G25">
-        <v>3.634903472394786</v>
+        <v>2.085865920255108</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,19 +1529,19 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.448188267806792</v>
+        <v>11.48180508844316</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>13.77068557623288</v>
+        <v>15.53829839130979</v>
       </c>
       <c r="N25">
-        <v>18.64232829514189</v>
+        <v>11.9189721303869</v>
       </c>
       <c r="O25">
-        <v>21.99957462633357</v>
+        <v>14.33801510837457</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,1133 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.08081332703486</v>
+        <v>18.96401008021297</v>
       </c>
       <c r="C2">
-        <v>6.324521103181027</v>
+        <v>14.55562245112428</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>14.66424652703792</v>
+        <v>26.30027480860961</v>
       </c>
       <c r="F2">
-        <v>30.27884324296195</v>
+        <v>36.17049091140741</v>
       </c>
       <c r="G2">
-        <v>2.092206016047027</v>
+        <v>17.70994543105126</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2.261668174491626</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>3.435896477049178</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>7.435222601769158</v>
       </c>
       <c r="K2">
-        <v>10.66164057285524</v>
+        <v>10.52169830159009</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>5.191940113092037</v>
       </c>
       <c r="M2">
-        <v>14.26861591776021</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>12.2186359830283</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>14.39002032727695</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>12.29471094208908</v>
+      </c>
+      <c r="Q2">
+        <v>11.69852166581021</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.29386857656414</v>
+        <v>17.75010931878342</v>
       </c>
       <c r="C3">
-        <v>6.074062359577438</v>
+        <v>13.77347345462418</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>13.78066822696154</v>
+        <v>24.89287802516933</v>
       </c>
       <c r="F3">
-        <v>28.1630198432675</v>
+        <v>34.48358189353156</v>
       </c>
       <c r="G3">
-        <v>2.096662835722388</v>
+        <v>17.10843109606981</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2.004310370125326</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>3.311944565457633</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>7.439340153240023</v>
       </c>
       <c r="K3">
-        <v>10.06792834101907</v>
+        <v>10.69161484933076</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>5.109224844705526</v>
       </c>
       <c r="M3">
-        <v>13.34726263368464</v>
+        <v>0</v>
       </c>
       <c r="N3">
-        <v>12.42705672040361</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>14.45398136627202</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>12.24361161926754</v>
+      </c>
+      <c r="Q3">
+        <v>11.5810915576065</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>10.78273983143657</v>
+        <v>16.95752855494847</v>
       </c>
       <c r="C4">
-        <v>5.914770307093113</v>
+        <v>13.27256942557641</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>13.22089302857775</v>
+        <v>23.98919363625485</v>
       </c>
       <c r="F4">
-        <v>26.79314218379246</v>
+        <v>33.41286852806705</v>
       </c>
       <c r="G4">
-        <v>2.099481894450943</v>
+        <v>16.74030587308363</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>1.840489516808764</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>3.233698238675127</v>
       </c>
       <c r="J4">
-        <v>0</v>
+        <v>7.44487790207329</v>
       </c>
       <c r="K4">
-        <v>9.684932689765958</v>
+        <v>10.80015332300449</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>5.05658903505868</v>
       </c>
       <c r="M4">
-        <v>12.75126425724246</v>
+        <v>0</v>
       </c>
       <c r="N4">
-        <v>12.55783363164121</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>14.50638137705436</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>12.21516641541347</v>
+      </c>
+      <c r="Q4">
+        <v>11.5146724460397</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.56740069094512</v>
+        <v>16.61777694731602</v>
       </c>
       <c r="C5">
-        <v>5.848524603043215</v>
+        <v>13.07232422894617</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>12.98864678286018</v>
+        <v>23.61459232376413</v>
       </c>
       <c r="F5">
-        <v>26.2169480385347</v>
+        <v>32.96470520302508</v>
       </c>
       <c r="G5">
-        <v>2.100651940652579</v>
+        <v>16.57933055626835</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1.77215509980217</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>3.201566967483782</v>
       </c>
       <c r="J5">
-        <v>0</v>
+        <v>7.44618017920545</v>
       </c>
       <c r="K5">
-        <v>9.524269410305269</v>
+        <v>10.84213847150977</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>5.034336437934296</v>
       </c>
       <c r="M5">
-        <v>12.50074861554758</v>
+        <v>0</v>
       </c>
       <c r="N5">
-        <v>12.61185579202558</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>14.53088506501395</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>12.20590386124557</v>
+      </c>
+      <c r="Q5">
+        <v>11.4845240935577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.53121738631333</v>
+        <v>16.55467310111981</v>
       </c>
       <c r="C6">
-        <v>5.8374457404219</v>
+        <v>13.0497312777691</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>12.94983987018843</v>
+        <v>23.55593786712098</v>
       </c>
       <c r="F6">
-        <v>26.12018204701072</v>
+        <v>32.8854893096568</v>
       </c>
       <c r="G6">
-        <v>2.100847523955435</v>
+        <v>16.53861266429165</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1.760601934339023</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>3.19674089781608</v>
       </c>
       <c r="J6">
-        <v>0</v>
+        <v>7.444376838967143</v>
       </c>
       <c r="K6">
-        <v>9.497316009024964</v>
+        <v>10.84517508029342</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>5.030205046838141</v>
       </c>
       <c r="M6">
-        <v>12.4586885921351</v>
+        <v>0</v>
       </c>
       <c r="N6">
-        <v>12.6208708717491</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>14.53513981410952</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>12.2063752127684</v>
+      </c>
+      <c r="Q6">
+        <v>11.47411650179729</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>10.77986426595609</v>
+        <v>16.93706985801226</v>
       </c>
       <c r="C7">
-        <v>5.913882216059773</v>
+        <v>13.29927740656245</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>13.21777730002403</v>
+        <v>23.99523151213549</v>
       </c>
       <c r="F7">
-        <v>26.78544435617556</v>
+        <v>33.39528411058076</v>
       </c>
       <c r="G7">
-        <v>2.099497587390895</v>
+        <v>16.70025606560595</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1.839262407197838</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>3.23448591067244</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>7.439263528194452</v>
       </c>
       <c r="K7">
-        <v>9.68278443214929</v>
+        <v>10.78977214220035</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>5.055187030791588</v>
       </c>
       <c r="M7">
-        <v>12.74791668320155</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>12.55855920869076</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>14.50669928360939</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>12.22046467148612</v>
+      </c>
+      <c r="Q7">
+        <v>11.4993294518983</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>11.81525808202576</v>
+        <v>18.53577837959896</v>
       </c>
       <c r="C8">
-        <v>6.239335434117034</v>
+        <v>14.32681814397812</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>14.363277386313</v>
+        <v>25.8370052173983</v>
       </c>
       <c r="F8">
-        <v>29.56389055882491</v>
+        <v>35.5819387651825</v>
       </c>
       <c r="G8">
-        <v>2.093725900753926</v>
+        <v>17.45434611535245</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2.173735288897181</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>3.394928944969072</v>
       </c>
       <c r="J8">
-        <v>0</v>
+        <v>7.428585806299533</v>
       </c>
       <c r="K8">
-        <v>10.46078448753142</v>
+        <v>10.56479856308939</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>5.162383823752668</v>
       </c>
       <c r="M8">
-        <v>13.95719962341355</v>
+        <v>0</v>
       </c>
       <c r="N8">
-        <v>12.28993193353092</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>14.40925763734398</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>12.28389612397904</v>
+      </c>
+      <c r="Q8">
+        <v>11.63735445227715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>13.62528772982516</v>
+        <v>21.32216495172052</v>
       </c>
       <c r="C9">
-        <v>6.831928569208276</v>
+        <v>16.12588732483166</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>16.58102578159949</v>
+        <v>29.10943996096903</v>
       </c>
       <c r="F9">
-        <v>34.45877994146107</v>
+        <v>39.594608036241</v>
       </c>
       <c r="G9">
-        <v>2.083038860050619</v>
+        <v>18.99856589617249</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.785131027220028</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>3.691606960206288</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>7.442666147375217</v>
       </c>
       <c r="K9">
-        <v>11.83853591658095</v>
+        <v>10.17832438522639</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>5.360059986984799</v>
       </c>
       <c r="M9">
-        <v>16.09002273584074</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>11.78426615807473</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>14.32924979396475</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>12.4218224113935</v>
+      </c>
+      <c r="Q9">
+        <v>11.98041946768637</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.82290527227932</v>
+        <v>23.11266157536669</v>
       </c>
       <c r="C10">
-        <v>7.237469260761782</v>
+        <v>17.31991756695842</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>18.20184821860594</v>
+        <v>30.86645390151763</v>
       </c>
       <c r="F10">
-        <v>37.72874519847221</v>
+        <v>41.94651547465685</v>
       </c>
       <c r="G10">
-        <v>2.075536728287526</v>
+        <v>19.9998909224768</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>3.18355425853235</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>3.897466299850672</v>
       </c>
       <c r="J10">
-        <v>0</v>
+        <v>7.450510450927475</v>
       </c>
       <c r="K10">
-        <v>12.75951932720658</v>
+        <v>9.895516609970905</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>5.461007092960775</v>
       </c>
       <c r="M10">
-        <v>17.51456709803109</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>11.42391710565588</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>14.34784055600531</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>12.55357827972701</v>
+      </c>
+      <c r="Q10">
+        <v>12.21013595789961</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.33955310508786</v>
+        <v>23.65663046917109</v>
       </c>
       <c r="C11">
-        <v>7.415188164370583</v>
+        <v>17.58948753975825</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>18.90825300206491</v>
+        <v>27.81503943248046</v>
       </c>
       <c r="F11">
-        <v>39.1480572223286</v>
+        <v>39.58013937259449</v>
       </c>
       <c r="G11">
-        <v>2.07219143681995</v>
+        <v>19.47034341880645</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.749369620120408</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3.962336881674495</v>
       </c>
       <c r="J11">
-        <v>0</v>
+        <v>7.303562893693298</v>
       </c>
       <c r="K11">
-        <v>13.15866351583058</v>
+        <v>9.606777541634953</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>5.268362440297964</v>
       </c>
       <c r="M11">
-        <v>18.13250109037753</v>
+        <v>0</v>
       </c>
       <c r="N11">
-        <v>11.26200547028679</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>14.37521087333737</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>12.73755171254718</v>
+      </c>
+      <c r="Q11">
+        <v>11.90878107687104</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>15.53119192688789</v>
+        <v>23.7708209760386</v>
       </c>
       <c r="C12">
-        <v>7.481496279554177</v>
+        <v>17.53565464820232</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>19.17141334736708</v>
+        <v>24.86401498945061</v>
       </c>
       <c r="F12">
-        <v>39.67592721363786</v>
+        <v>37.07985112505585</v>
       </c>
       <c r="G12">
-        <v>2.070933634391508</v>
+        <v>18.84723455539615</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.745758977550503</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>3.973247094743054</v>
       </c>
       <c r="J12">
-        <v>0</v>
+        <v>7.181705349057466</v>
       </c>
       <c r="K12">
-        <v>13.30696753842866</v>
+        <v>9.438309734602667</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>5.185890794079814</v>
       </c>
       <c r="M12">
-        <v>18.36224218357992</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>11.20094775738099</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>14.38846984446462</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>12.85748271197139</v>
+      </c>
+      <c r="Q12">
+        <v>11.61753877780649</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.49009644562113</v>
+        <v>23.54746508887031</v>
       </c>
       <c r="C13">
-        <v>7.46725990100854</v>
+        <v>17.26505743095321</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>19.11492827886072</v>
+        <v>21.75876372483537</v>
       </c>
       <c r="F13">
-        <v>39.56266403258223</v>
+        <v>34.24829166596061</v>
       </c>
       <c r="G13">
-        <v>2.071204136857622</v>
+        <v>18.0465128668699</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.89974238094739</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>3.945980992457685</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>7.062662888667502</v>
       </c>
       <c r="K13">
-        <v>13.27515389230219</v>
+        <v>9.335646579324141</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>5.182916660385003</v>
       </c>
       <c r="M13">
-        <v>18.31295146013973</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>11.21408687891286</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>14.38548277642727</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>12.94217976052005</v>
+      </c>
+      <c r="Q13">
+        <v>11.29091569667697</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.3553993394982</v>
+        <v>23.23176341035688</v>
       </c>
       <c r="C14">
-        <v>7.420663298864231</v>
+        <v>16.98163010161209</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>18.92998969598347</v>
+        <v>19.50222186794329</v>
       </c>
       <c r="F14">
-        <v>39.19167637503946</v>
+        <v>32.08550264007833</v>
       </c>
       <c r="G14">
-        <v>2.072087780813975</v>
+        <v>17.388482110988</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.765478112236309</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>3.910458525312026</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>6.979405130365349</v>
       </c>
       <c r="K14">
-        <v>13.17092149851566</v>
+        <v>9.292263906517356</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>5.229379462467794</v>
       </c>
       <c r="M14">
-        <v>18.15148691582324</v>
+        <v>0</v>
       </c>
       <c r="N14">
-        <v>11.25697731826607</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>14.37624268771309</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>12.98711255756397</v>
+      </c>
+      <c r="Q14">
+        <v>11.04189397594607</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.27237332695209</v>
+        <v>23.07644094735494</v>
       </c>
       <c r="C15">
-        <v>7.391992155783663</v>
+        <v>16.87452895468922</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.81614761628469</v>
+        <v>18.91680536221569</v>
       </c>
       <c r="F15">
-        <v>38.96319309123407</v>
+        <v>31.48192521678962</v>
       </c>
       <c r="G15">
-        <v>2.072630186569893</v>
+        <v>17.1780570270726</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>6.963056626279553</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>3.894344765809698</v>
       </c>
       <c r="J15">
-        <v>0</v>
+        <v>6.958492063072133</v>
       </c>
       <c r="K15">
-        <v>13.10670618290269</v>
+        <v>9.292729578012491</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>5.243617566699702</v>
       </c>
       <c r="M15">
-        <v>18.05203304480133</v>
+        <v>0</v>
       </c>
       <c r="N15">
-        <v>11.28328104974542</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>14.37096499134456</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>12.99264797824106</v>
+      </c>
+      <c r="Q15">
+        <v>10.96985606514622</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.78857828239735</v>
+        <v>22.36830224988289</v>
       </c>
       <c r="C16">
-        <v>7.225717183170914</v>
+        <v>16.43696552309073</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.15506971686677</v>
+        <v>18.61529430060954</v>
       </c>
       <c r="F16">
-        <v>37.63463543028808</v>
+        <v>30.89744288694552</v>
       </c>
       <c r="G16">
-        <v>2.075756648533755</v>
+        <v>16.84627794743632</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.682815439317927</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>3.814010251316501</v>
       </c>
       <c r="J16">
-        <v>0</v>
+        <v>6.974624327832815</v>
       </c>
       <c r="K16">
-        <v>12.73303594402322</v>
+        <v>9.430091244765128</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>5.196188684739986</v>
       </c>
       <c r="M16">
-        <v>17.47358391590676</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>11.43453600027308</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>14.34644735845034</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>12.91617050602518</v>
+      </c>
+      <c r="Q16">
+        <v>10.9205018364538</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.48460509205102</v>
+        <v>21.98831979578346</v>
       </c>
       <c r="C17">
-        <v>7.121966286590344</v>
+        <v>16.25328608322511</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>17.74167368963497</v>
+        <v>19.62094665401866</v>
       </c>
       <c r="F17">
-        <v>36.80228778268388</v>
+        <v>31.63944612145521</v>
       </c>
       <c r="G17">
-        <v>2.077691417716308</v>
+        <v>16.95417467402045</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>5.955632068622464</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>3.771116364170341</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>7.031642188391923</v>
       </c>
       <c r="K17">
-        <v>12.49872822132589</v>
+        <v>9.557427694998601</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>5.126083041322828</v>
       </c>
       <c r="M17">
-        <v>17.1110635491973</v>
+        <v>0</v>
       </c>
       <c r="N17">
-        <v>11.52781758407767</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>14.33637498477384</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>12.83482294765401</v>
+      </c>
+      <c r="Q17">
+        <v>11.01738741010476</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.30711490348852</v>
+        <v>21.87010724180582</v>
       </c>
       <c r="C18">
-        <v>7.061655580961787</v>
+        <v>16.25301824467522</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>17.50098235378482</v>
+        <v>21.90808121665182</v>
       </c>
       <c r="F18">
-        <v>36.31710943239619</v>
+        <v>33.621537936986</v>
       </c>
       <c r="G18">
-        <v>2.078810641513357</v>
+        <v>17.47450692168733</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>4.821101379681531</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>3.754309406793759</v>
       </c>
       <c r="J18">
-        <v>0</v>
+        <v>7.132504245912265</v>
       </c>
       <c r="K18">
-        <v>12.36209460110796</v>
+        <v>9.698014308450187</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>5.079287177225958</v>
       </c>
       <c r="M18">
-        <v>16.89971374098386</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>11.58166236800749</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>14.33235134344147</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>12.73480435674629</v>
+      </c>
+      <c r="Q18">
+        <v>11.25778713972903</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.24656285175029</v>
+        <v>21.95008197559182</v>
       </c>
       <c r="C19">
-        <v>7.041126816192025</v>
+        <v>16.44721047254828</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>17.41898437013768</v>
+        <v>25.08972945151649</v>
       </c>
       <c r="F19">
-        <v>36.15172494150059</v>
+        <v>36.41639090208552</v>
       </c>
       <c r="G19">
-        <v>2.079190710936832</v>
+        <v>18.21530319864165</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.65196299275741</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>3.766498450647414</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>7.250103126637492</v>
       </c>
       <c r="K19">
-        <v>12.31551224183271</v>
+        <v>9.822477378646324</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>5.130921063527846</v>
       </c>
       <c r="M19">
-        <v>16.82766490114675</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>11.59992722958422</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>14.33128763768477</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>12.63963223345236</v>
+      </c>
+      <c r="Q19">
+        <v>11.56675593937266</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.51723780700793</v>
+        <v>22.6179501938405</v>
       </c>
       <c r="C20">
-        <v>7.133076708159572</v>
+        <v>17.08613398730308</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>17.78598155389612</v>
+        <v>30.42251339255314</v>
       </c>
       <c r="F20">
-        <v>36.89155697731402</v>
+        <v>41.29311747086582</v>
       </c>
       <c r="G20">
-        <v>2.077484801324918</v>
+        <v>19.63211832193671</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>3.077637554995295</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>3.849791373354079</v>
       </c>
       <c r="J20">
-        <v>0</v>
+        <v>7.429369193939207</v>
       </c>
       <c r="K20">
-        <v>12.52386378100469</v>
+        <v>9.932322750783602</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>5.430294112700645</v>
       </c>
       <c r="M20">
-        <v>17.14994765762492</v>
+        <v>0</v>
       </c>
       <c r="N20">
-        <v>11.51786800594772</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>14.33726278127948</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>12.5369701958204</v>
+      </c>
+      <c r="Q20">
+        <v>12.10211077820465</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>15.39507145973938</v>
+        <v>23.96842987679719</v>
       </c>
       <c r="C21">
-        <v>7.434376836637689</v>
+        <v>18.00077076256312</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>18.9844275280834</v>
+        <v>32.39635278861505</v>
       </c>
       <c r="F21">
-        <v>39.30090300329761</v>
+        <v>43.65201855156606</v>
       </c>
       <c r="G21">
-        <v>2.071827995200558</v>
+        <v>20.58888817740398</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>3.415121018011373</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>4.009524185826966</v>
       </c>
       <c r="J21">
-        <v>0</v>
+        <v>7.470557753899261</v>
       </c>
       <c r="K21">
-        <v>13.20161415857384</v>
+        <v>9.756962912392755</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>5.560768391853048</v>
       </c>
       <c r="M21">
-        <v>18.1990279028717</v>
+        <v>0</v>
       </c>
       <c r="N21">
-        <v>11.24437273257669</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>14.37887677975748</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>12.61996111013642</v>
+      </c>
+      <c r="Q21">
+        <v>12.3673743643793</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>15.94546775532025</v>
+        <v>24.81253099382392</v>
       </c>
       <c r="C22">
-        <v>7.62551800227748</v>
+        <v>18.53309691935771</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>19.74244191412156</v>
+        <v>33.4060909430719</v>
       </c>
       <c r="F22">
-        <v>40.81974568026784</v>
+        <v>44.96238927178569</v>
       </c>
       <c r="G22">
-        <v>2.068182960266156</v>
+        <v>21.19329337005436</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>3.618409409741142</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>4.108144549163418</v>
       </c>
       <c r="J22">
-        <v>0</v>
+        <v>7.499624638282039</v>
       </c>
       <c r="K22">
-        <v>13.62799847824845</v>
+        <v>9.653957831216802</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>5.627756360248926</v>
       </c>
       <c r="M22">
-        <v>18.85988669830989</v>
+        <v>0</v>
       </c>
       <c r="N22">
-        <v>11.06709453008073</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>14.42302569937461</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>12.67565235870523</v>
+      </c>
+      <c r="Q22">
+        <v>12.54098201342902</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>15.65382923301195</v>
+        <v>24.37937638353619</v>
       </c>
       <c r="C23">
-        <v>7.52403527381538</v>
+        <v>18.22426516367382</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>19.34014714413544</v>
+        <v>32.86086942098128</v>
       </c>
       <c r="F23">
-        <v>40.01414225038427</v>
+        <v>44.27713521780429</v>
       </c>
       <c r="G23">
-        <v>2.070123873654169</v>
+        <v>20.90722031030756</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>3.510575180512123</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>4.053264480474528</v>
       </c>
       <c r="J23">
-        <v>0</v>
+        <v>7.490233640056172</v>
       </c>
       <c r="K23">
-        <v>13.40194096045744</v>
+        <v>9.721918182351175</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>5.59327902049113</v>
       </c>
       <c r="M23">
-        <v>18.50941566108065</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>11.16158914589002</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>14.39785383403074</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>12.63858871624373</v>
+      </c>
+      <c r="Q23">
+        <v>12.46395704514815</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.50249306929806</v>
+        <v>22.63672858121408</v>
       </c>
       <c r="C24">
-        <v>7.128055750060766</v>
+        <v>17.05476322943309</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>17.76595939684172</v>
+        <v>30.73415340065355</v>
       </c>
       <c r="F24">
-        <v>36.8512191057544</v>
+        <v>41.58693584695922</v>
       </c>
       <c r="G24">
-        <v>2.077578191052194</v>
+        <v>19.76119097590955</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>3.093229870661708</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>3.845927824128619</v>
       </c>
       <c r="J24">
-        <v>0</v>
+        <v>7.451837261258364</v>
       </c>
       <c r="K24">
-        <v>12.51250599700993</v>
+        <v>9.968949556902622</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>5.458110122653557</v>
       </c>
       <c r="M24">
-        <v>17.1323772900854</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>11.52236553495764</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>14.33685591759651</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>12.51503482328867</v>
+      </c>
+      <c r="Q24">
+        <v>12.15875927298626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.15901237639827</v>
+        <v>20.58423634793125</v>
       </c>
       <c r="C25">
-        <v>6.67673584527165</v>
+        <v>15.70354070037487</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>15.95608291961305</v>
+        <v>28.27654516398326</v>
       </c>
       <c r="F25">
-        <v>33.19272459126714</v>
+        <v>38.52455973419303</v>
       </c>
       <c r="G25">
-        <v>2.085865920255108</v>
+        <v>18.5201201740381</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2.623915230928381</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>3.615770642968146</v>
       </c>
       <c r="J25">
-        <v>0</v>
+        <v>7.425963433434032</v>
       </c>
       <c r="K25">
-        <v>11.48180508844316</v>
+        <v>10.25874898153688</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>5.306231753490065</v>
       </c>
       <c r="M25">
-        <v>15.53829839130979</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>11.9189721303869</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>14.33801510837457</v>
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>12.39240747424015</v>
+      </c>
+      <c r="Q25">
+        <v>11.85654999448978</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_21/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1277 +421,1427 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.96401008021297</v>
+        <v>18.82977242757816</v>
       </c>
       <c r="C2">
-        <v>14.55562245112428</v>
+        <v>14.69314793691304</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>26.30027480860961</v>
+        <v>26.34176468059745</v>
       </c>
       <c r="F2">
-        <v>36.17049091140741</v>
+        <v>36.08953778057257</v>
       </c>
       <c r="G2">
-        <v>17.70994543105126</v>
+        <v>16.82712989453503</v>
       </c>
       <c r="H2">
-        <v>2.261668174491626</v>
+        <v>2.241990306192589</v>
       </c>
       <c r="I2">
-        <v>3.435896477049178</v>
+        <v>3.407585179748908</v>
       </c>
       <c r="J2">
-        <v>7.435222601769158</v>
+        <v>8.116994807960008</v>
       </c>
       <c r="K2">
-        <v>10.52169830159009</v>
+        <v>10.4770814205408</v>
       </c>
       <c r="L2">
-        <v>5.191940113092037</v>
+        <v>10.06506519771434</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>5.434638430446874</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.191476379337851</v>
       </c>
       <c r="O2">
         <v>0</v>
       </c>
       <c r="P2">
-        <v>12.29471094208908</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>11.69852166581021</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R2">
+        <v>12.35623969906034</v>
+      </c>
+      <c r="S2">
+        <v>11.65943596857972</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>17.75010931878342</v>
+        <v>17.65475834012415</v>
       </c>
       <c r="C3">
-        <v>13.77347345462418</v>
+        <v>13.83637320622395</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>24.89287802516933</v>
+        <v>24.91805821259505</v>
       </c>
       <c r="F3">
-        <v>34.48358189353156</v>
+        <v>34.42715535463184</v>
       </c>
       <c r="G3">
-        <v>17.10843109606981</v>
+        <v>16.25881645247174</v>
       </c>
       <c r="H3">
-        <v>2.004310370125326</v>
+        <v>1.988809561340605</v>
       </c>
       <c r="I3">
-        <v>3.311944565457633</v>
+        <v>3.297224767954123</v>
       </c>
       <c r="J3">
-        <v>7.439340153240023</v>
+        <v>8.105431720477178</v>
       </c>
       <c r="K3">
-        <v>10.69161484933076</v>
+        <v>10.64942288524955</v>
       </c>
       <c r="L3">
-        <v>5.109224844705526</v>
+        <v>10.25060146356364</v>
       </c>
       <c r="M3">
-        <v>0</v>
+        <v>5.531868032602633</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>5.109721497194878</v>
       </c>
       <c r="O3">
         <v>0</v>
       </c>
       <c r="P3">
-        <v>12.24361161926754</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>11.5810915576065</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R3">
+        <v>12.28235572976546</v>
+      </c>
+      <c r="S3">
+        <v>11.56496920473584</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.95752855494847</v>
+        <v>16.88746270933258</v>
       </c>
       <c r="C4">
-        <v>13.27256942557641</v>
+        <v>13.28705254707878</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>23.98919363625485</v>
+        <v>24.00422637831757</v>
       </c>
       <c r="F4">
-        <v>33.41286852806705</v>
+        <v>33.37172071819743</v>
       </c>
       <c r="G4">
-        <v>16.74030587308363</v>
+        <v>15.91136075686076</v>
       </c>
       <c r="H4">
-        <v>1.840489516808764</v>
+        <v>1.827613304109981</v>
       </c>
       <c r="I4">
-        <v>3.233698238675127</v>
+        <v>3.227674362963495</v>
       </c>
       <c r="J4">
-        <v>7.44487790207329</v>
+        <v>8.099427482901337</v>
       </c>
       <c r="K4">
-        <v>10.80015332300449</v>
+        <v>10.75826781944136</v>
       </c>
       <c r="L4">
-        <v>5.05658903505868</v>
+        <v>10.37006219277838</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>5.614857676507552</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>5.057633910528297</v>
       </c>
       <c r="O4">
         <v>0</v>
       </c>
       <c r="P4">
-        <v>12.21516641541347</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>11.5146724460397</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R4">
+        <v>12.24014478370712</v>
+      </c>
+      <c r="S4">
+        <v>11.5113669105033</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>16.61777694731602</v>
+        <v>16.55836711139123</v>
       </c>
       <c r="C5">
-        <v>13.07232422894617</v>
+        <v>13.06660916672127</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>23.61459232376413</v>
+        <v>23.62549654598281</v>
       </c>
       <c r="F5">
-        <v>32.96470520302508</v>
+        <v>32.92981341892109</v>
       </c>
       <c r="G5">
-        <v>16.57933055626835</v>
+        <v>15.75846170721271</v>
       </c>
       <c r="H5">
-        <v>1.77215509980217</v>
+        <v>1.76036710938504</v>
       </c>
       <c r="I5">
-        <v>3.201566967483782</v>
+        <v>3.199414068661415</v>
       </c>
       <c r="J5">
-        <v>7.44618017920545</v>
+        <v>8.095612772002243</v>
       </c>
       <c r="K5">
-        <v>10.84213847150977</v>
+        <v>10.80015777941825</v>
       </c>
       <c r="L5">
-        <v>5.034336437934296</v>
+        <v>10.41681125758008</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>5.653085970819769</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>5.035593814024506</v>
       </c>
       <c r="O5">
         <v>0</v>
       </c>
       <c r="P5">
-        <v>12.20590386124557</v>
+        <v>0</v>
       </c>
       <c r="Q5">
-        <v>11.4845240935577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R5">
+        <v>12.22535851389956</v>
+      </c>
+      <c r="S5">
+        <v>11.48613147959799</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>16.55467310111981</v>
+        <v>16.49704408998635</v>
       </c>
       <c r="C6">
-        <v>13.0497312777691</v>
+        <v>13.04082766368354</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>23.55593786712098</v>
+        <v>23.56618439625034</v>
       </c>
       <c r="F6">
-        <v>32.8854893096568</v>
+        <v>32.85162572456244</v>
       </c>
       <c r="G6">
-        <v>16.53861266429165</v>
+        <v>15.71863309754553</v>
       </c>
       <c r="H6">
-        <v>1.760601934339023</v>
+        <v>1.748999058127733</v>
       </c>
       <c r="I6">
-        <v>3.19674089781608</v>
+        <v>3.195563431787259</v>
       </c>
       <c r="J6">
-        <v>7.444376838967143</v>
+        <v>8.092994382255497</v>
       </c>
       <c r="K6">
-        <v>10.84517508029342</v>
+        <v>10.80323868031249</v>
       </c>
       <c r="L6">
-        <v>5.030205046838141</v>
+        <v>10.42061149758356</v>
       </c>
       <c r="M6">
-        <v>0</v>
+        <v>5.658271204347417</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>5.031496899610686</v>
       </c>
       <c r="O6">
         <v>0</v>
       </c>
       <c r="P6">
-        <v>12.2063752127684</v>
+        <v>0</v>
       </c>
       <c r="Q6">
-        <v>11.47411650179729</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R6">
+        <v>12.22494415529491</v>
+      </c>
+      <c r="S6">
+        <v>11.47654212407716</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.93706985801226</v>
+        <v>16.86141326991225</v>
       </c>
       <c r="C7">
-        <v>13.29927740656245</v>
+        <v>13.30474246200423</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>23.99523151213549</v>
+        <v>24.01781084246517</v>
       </c>
       <c r="F7">
-        <v>33.39528411058076</v>
+        <v>33.34617565775896</v>
       </c>
       <c r="G7">
-        <v>16.70025606560595</v>
+        <v>15.96900789354149</v>
       </c>
       <c r="H7">
-        <v>1.839262407197838</v>
+        <v>1.826124782753204</v>
       </c>
       <c r="I7">
-        <v>3.23448591067244</v>
+        <v>3.228864990378651</v>
       </c>
       <c r="J7">
-        <v>7.439263528194452</v>
+        <v>8.057097487083812</v>
       </c>
       <c r="K7">
-        <v>10.78977214220035</v>
+        <v>10.74462113820241</v>
       </c>
       <c r="L7">
-        <v>5.055187030791588</v>
+        <v>10.35639588230782</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>5.609188473231015</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>5.055507767505047</v>
       </c>
       <c r="O7">
         <v>0</v>
       </c>
       <c r="P7">
-        <v>12.22046467148612</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>11.4993294518983</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R7">
+        <v>12.24747215363497</v>
+      </c>
+      <c r="S7">
+        <v>11.48626190171682</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>18.53577837959896</v>
+        <v>18.39711563231979</v>
       </c>
       <c r="C8">
-        <v>14.32681814397812</v>
+        <v>14.41094651449926</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>25.8370052173983</v>
+        <v>25.89646830308771</v>
       </c>
       <c r="F8">
-        <v>35.5819387651825</v>
+        <v>35.48424112457402</v>
       </c>
       <c r="G8">
-        <v>17.45434611535245</v>
+        <v>16.89674620817712</v>
       </c>
       <c r="H8">
-        <v>2.173735288897181</v>
+        <v>2.154618299191645</v>
       </c>
       <c r="I8">
-        <v>3.394928944969072</v>
+        <v>3.370765614256368</v>
       </c>
       <c r="J8">
-        <v>7.428585806299533</v>
+        <v>7.985518362307636</v>
       </c>
       <c r="K8">
-        <v>10.56479856308939</v>
+        <v>10.51024077491953</v>
       </c>
       <c r="L8">
-        <v>5.162383823752668</v>
+        <v>10.10503077731311</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>5.44693429405742</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>5.15992045859281</v>
       </c>
       <c r="O8">
         <v>0</v>
       </c>
       <c r="P8">
-        <v>12.28389612397904</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>11.63735445227715</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R8">
+        <v>12.34462547144656</v>
+      </c>
+      <c r="S8">
+        <v>11.57411047736058</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>21.32216495172052</v>
+        <v>21.09181014397871</v>
       </c>
       <c r="C9">
-        <v>16.12588732483166</v>
+        <v>16.37649624619309</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>29.10943996096903</v>
+        <v>29.21163977462108</v>
       </c>
       <c r="F9">
-        <v>39.594608036241</v>
+        <v>39.43352936801219</v>
       </c>
       <c r="G9">
-        <v>18.99856589617249</v>
+        <v>18.41848786168281</v>
       </c>
       <c r="H9">
-        <v>2.785131027220028</v>
+        <v>2.755737610071457</v>
       </c>
       <c r="I9">
-        <v>3.691606960206288</v>
+        <v>3.634256012206003</v>
       </c>
       <c r="J9">
-        <v>7.442666147375217</v>
+        <v>7.994716983729259</v>
       </c>
       <c r="K9">
-        <v>10.17832438522639</v>
+        <v>10.10685548435314</v>
       </c>
       <c r="L9">
-        <v>5.360059986984799</v>
+        <v>9.685568605854655</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>5.340339639178195</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>5.354471793744516</v>
       </c>
       <c r="O9">
         <v>0</v>
       </c>
       <c r="P9">
-        <v>12.4218224113935</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>11.98041946768637</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R9">
+        <v>12.54248731807573</v>
+      </c>
+      <c r="S9">
+        <v>11.84502500776706</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>23.11266157536669</v>
+        <v>22.79807865046125</v>
       </c>
       <c r="C10">
-        <v>17.31991756695842</v>
+        <v>17.63303145564921</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>30.86645390151763</v>
+        <v>31.03082148012831</v>
       </c>
       <c r="F10">
-        <v>41.94651547465685</v>
+        <v>41.70539272368069</v>
       </c>
       <c r="G10">
-        <v>19.9998909224768</v>
+        <v>19.89229268078059</v>
       </c>
       <c r="H10">
-        <v>3.18355425853235</v>
+        <v>3.145771910698973</v>
       </c>
       <c r="I10">
-        <v>3.897466299850672</v>
+        <v>3.815981535368656</v>
       </c>
       <c r="J10">
-        <v>7.450510450927475</v>
+        <v>7.790627510308534</v>
       </c>
       <c r="K10">
-        <v>9.895516609970905</v>
+        <v>9.787373776247085</v>
       </c>
       <c r="L10">
-        <v>5.461007092960775</v>
+        <v>9.380668116241422</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>5.344975925591906</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>5.450452863834164</v>
       </c>
       <c r="O10">
         <v>0</v>
       </c>
       <c r="P10">
-        <v>12.55357827972701</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>12.21013595789961</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>12.73087383954181</v>
+      </c>
+      <c r="S10">
+        <v>11.96505008270068</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.65663046917109</v>
+        <v>23.28082217082767</v>
       </c>
       <c r="C11">
-        <v>17.58948753975825</v>
+        <v>17.82176380438205</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>27.81503943248046</v>
+        <v>28.04329104161626</v>
       </c>
       <c r="F11">
-        <v>39.58013937259449</v>
+        <v>39.25932804596884</v>
       </c>
       <c r="G11">
-        <v>19.47034341880645</v>
+        <v>20.43194428583846</v>
       </c>
       <c r="H11">
-        <v>3.749369620120408</v>
+        <v>3.714303262630412</v>
       </c>
       <c r="I11">
-        <v>3.962336881674495</v>
+        <v>3.871460200414003</v>
       </c>
       <c r="J11">
-        <v>7.303562893693298</v>
+        <v>7.275877334315093</v>
       </c>
       <c r="K11">
-        <v>9.606777541634953</v>
+        <v>9.480053865709811</v>
       </c>
       <c r="L11">
-        <v>5.268362440297964</v>
+        <v>9.156961973439543</v>
       </c>
       <c r="M11">
-        <v>0</v>
+        <v>5.175055048190166</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>5.264729354856463</v>
       </c>
       <c r="O11">
         <v>0</v>
       </c>
       <c r="P11">
-        <v>12.73755171254718</v>
+        <v>0</v>
       </c>
       <c r="Q11">
-        <v>11.90878107687104</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <v>12.95709749871697</v>
+      </c>
+      <c r="S11">
+        <v>11.54904724749443</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>23.7708209760386</v>
+        <v>23.37586914485275</v>
       </c>
       <c r="C12">
-        <v>17.53565464820232</v>
+        <v>17.7122402451408</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>24.86401498945061</v>
+        <v>25.10791108047308</v>
       </c>
       <c r="F12">
-        <v>37.07985112505585</v>
+        <v>36.73224602374302</v>
       </c>
       <c r="G12">
-        <v>18.84723455539615</v>
+        <v>20.32260844105663</v>
       </c>
       <c r="H12">
-        <v>4.745758977550503</v>
+        <v>4.718123517331993</v>
       </c>
       <c r="I12">
-        <v>3.973247094743054</v>
+        <v>3.879066579601555</v>
       </c>
       <c r="J12">
-        <v>7.181705349057466</v>
+        <v>7.031037775994498</v>
       </c>
       <c r="K12">
-        <v>9.438309734602667</v>
+        <v>9.318148983607395</v>
       </c>
       <c r="L12">
-        <v>5.185890794079814</v>
+        <v>9.054101148100999</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>5.048572432278299</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.19456620988523</v>
       </c>
       <c r="O12">
         <v>0</v>
       </c>
       <c r="P12">
-        <v>12.85748271197139</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>11.61753877780649</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R12">
+        <v>13.09260798305156</v>
+      </c>
+      <c r="S12">
+        <v>11.21950423096003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>23.54746508887031</v>
+        <v>23.17505434853972</v>
       </c>
       <c r="C13">
-        <v>17.26505743095321</v>
+        <v>17.41923691970602</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>21.75876372483537</v>
+        <v>21.96740831162102</v>
       </c>
       <c r="F13">
-        <v>34.24829166596061</v>
+        <v>33.92831497730077</v>
       </c>
       <c r="G13">
-        <v>18.0465128668699</v>
+        <v>19.4313742702452</v>
       </c>
       <c r="H13">
-        <v>5.89974238094739</v>
+        <v>5.879167264732279</v>
       </c>
       <c r="I13">
-        <v>3.945980992457685</v>
+        <v>3.855060490930192</v>
       </c>
       <c r="J13">
-        <v>7.062662888667502</v>
+        <v>6.996261579521386</v>
       </c>
       <c r="K13">
-        <v>9.335646579324141</v>
+        <v>9.247795806798049</v>
       </c>
       <c r="L13">
-        <v>5.182916660385003</v>
+        <v>9.019575005782299</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>4.942951914422956</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.204409844218449</v>
       </c>
       <c r="O13">
         <v>0</v>
       </c>
       <c r="P13">
-        <v>12.94217976052005</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>11.29091569667697</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R13">
+        <v>13.16628753182321</v>
+      </c>
+      <c r="S13">
+        <v>10.93434260422432</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.23176341035688</v>
+        <v>22.89386086296922</v>
       </c>
       <c r="C14">
-        <v>16.98163010161209</v>
+        <v>17.13414287054184</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>19.50222186794329</v>
+        <v>19.66324651390881</v>
       </c>
       <c r="F14">
-        <v>32.08550264007833</v>
+        <v>31.80881973934731</v>
       </c>
       <c r="G14">
-        <v>17.388482110988</v>
+        <v>18.44290368428023</v>
       </c>
       <c r="H14">
-        <v>6.765478112236309</v>
+        <v>6.749066518290348</v>
       </c>
       <c r="I14">
-        <v>3.910458525312026</v>
+        <v>3.825048028074101</v>
       </c>
       <c r="J14">
-        <v>6.979405130365349</v>
+        <v>7.053527310388061</v>
       </c>
       <c r="K14">
-        <v>9.292263906517356</v>
+        <v>9.236138640801189</v>
       </c>
       <c r="L14">
-        <v>5.229379462467794</v>
+        <v>9.021284741767831</v>
       </c>
       <c r="M14">
-        <v>0</v>
+        <v>4.878601045645165</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.257378561346156</v>
       </c>
       <c r="O14">
         <v>0</v>
       </c>
       <c r="P14">
-        <v>12.98711255756397</v>
+        <v>0</v>
       </c>
       <c r="Q14">
-        <v>11.04189397594607</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>13.19149385569126</v>
+      </c>
+      <c r="S14">
+        <v>10.74840623239498</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.07644094735494</v>
+        <v>22.75518220511818</v>
       </c>
       <c r="C15">
-        <v>16.87452895468922</v>
+        <v>17.03243511330563</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>18.91680536221569</v>
+        <v>19.05759240418017</v>
       </c>
       <c r="F15">
-        <v>31.48192521678962</v>
+        <v>31.22597097315072</v>
       </c>
       <c r="G15">
-        <v>17.1780570270726</v>
+        <v>18.03735554378389</v>
       </c>
       <c r="H15">
-        <v>6.963056626279553</v>
+        <v>6.947759325183635</v>
       </c>
       <c r="I15">
-        <v>3.894344765809698</v>
+        <v>3.812097403551096</v>
       </c>
       <c r="J15">
-        <v>6.958492063072133</v>
+        <v>7.10309188761692</v>
       </c>
       <c r="K15">
-        <v>9.292729578012491</v>
+        <v>9.248352019899563</v>
       </c>
       <c r="L15">
-        <v>5.243617566699702</v>
+        <v>9.032309902300053</v>
       </c>
       <c r="M15">
-        <v>0</v>
+        <v>4.865073541371137</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.272221024500256</v>
       </c>
       <c r="O15">
         <v>0</v>
       </c>
       <c r="P15">
-        <v>12.99264797824106</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>10.96985606514622</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>13.18703489996108</v>
+      </c>
+      <c r="S15">
+        <v>10.70623579723895</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.36830224988289</v>
+        <v>22.11786204669404</v>
       </c>
       <c r="C16">
-        <v>16.43696552309073</v>
+        <v>16.63801104269736</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>18.61529430060954</v>
+        <v>18.68793016768188</v>
       </c>
       <c r="F16">
-        <v>30.89744288694552</v>
+        <v>30.72672461817358</v>
       </c>
       <c r="G16">
-        <v>16.84627794743632</v>
+        <v>16.76356350982381</v>
       </c>
       <c r="H16">
-        <v>6.682815439317927</v>
+        <v>6.66972979875353</v>
       </c>
       <c r="I16">
-        <v>3.814010251316501</v>
+        <v>3.745143322550069</v>
       </c>
       <c r="J16">
-        <v>6.974624327832815</v>
+        <v>7.43493552199785</v>
       </c>
       <c r="K16">
-        <v>9.430091244765128</v>
+        <v>9.416319125543938</v>
       </c>
       <c r="L16">
-        <v>5.196188684739986</v>
+        <v>9.151500249301574</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>4.915243294352727</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.219043076406055</v>
       </c>
       <c r="O16">
         <v>0</v>
       </c>
       <c r="P16">
-        <v>12.91617050602518</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>10.9205018364538</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R16">
+        <v>13.06592658052412</v>
+      </c>
+      <c r="S16">
+        <v>10.7767194188358</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>21.98831979578346</v>
+        <v>21.76699794587195</v>
       </c>
       <c r="C17">
-        <v>16.25328608322511</v>
+        <v>16.47733521297688</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>19.62094665401866</v>
+        <v>19.67384518753673</v>
       </c>
       <c r="F17">
-        <v>31.63944612145521</v>
+        <v>31.50159479612143</v>
       </c>
       <c r="G17">
-        <v>16.95417467402045</v>
+        <v>16.45806986261965</v>
       </c>
       <c r="H17">
-        <v>5.955632068622464</v>
+        <v>5.942355339515907</v>
       </c>
       <c r="I17">
-        <v>3.771116364170341</v>
+        <v>3.709149457032771</v>
       </c>
       <c r="J17">
-        <v>7.031642188391923</v>
+        <v>7.62991689559883</v>
       </c>
       <c r="K17">
-        <v>9.557427694998601</v>
+        <v>9.548493733863236</v>
       </c>
       <c r="L17">
-        <v>5.126083041322828</v>
+        <v>9.247055924773999</v>
       </c>
       <c r="M17">
-        <v>0</v>
+        <v>4.981434386234877</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.144134441591039</v>
       </c>
       <c r="O17">
         <v>0</v>
       </c>
       <c r="P17">
-        <v>12.83482294765401</v>
+        <v>0</v>
       </c>
       <c r="Q17">
-        <v>11.01738741010476</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R17">
+        <v>12.9653150925387</v>
+      </c>
+      <c r="S17">
+        <v>10.91853491894246</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.87010724180582</v>
+        <v>21.65401621096352</v>
       </c>
       <c r="C18">
-        <v>16.25301824467522</v>
+        <v>16.50090780181893</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>21.90808121665182</v>
+        <v>21.9656209169061</v>
       </c>
       <c r="F18">
-        <v>33.621537936986</v>
+        <v>33.48917875799779</v>
       </c>
       <c r="G18">
-        <v>17.47450692168733</v>
+        <v>16.7921246015341</v>
       </c>
       <c r="H18">
-        <v>4.821101379681531</v>
+        <v>4.804956729515313</v>
       </c>
       <c r="I18">
-        <v>3.754309406793759</v>
+        <v>3.693932622668044</v>
       </c>
       <c r="J18">
-        <v>7.132504245912265</v>
+        <v>7.781557085499517</v>
       </c>
       <c r="K18">
-        <v>9.698014308450187</v>
+        <v>9.6789866028485</v>
       </c>
       <c r="L18">
-        <v>5.079287177225958</v>
+        <v>9.341079200457189</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>5.076037738779228</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.092076837850685</v>
       </c>
       <c r="O18">
         <v>0</v>
       </c>
       <c r="P18">
-        <v>12.73480435674629</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>11.25778713972903</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R18">
+        <v>12.85970925967304</v>
+      </c>
+      <c r="S18">
+        <v>11.16595180301405</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.95008197559182</v>
+        <v>21.72355883886345</v>
       </c>
       <c r="C19">
-        <v>16.44721047254828</v>
+        <v>16.72501157754929</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>25.08972945151649</v>
+        <v>25.16428676091375</v>
       </c>
       <c r="F19">
-        <v>36.41639090208552</v>
+        <v>36.27316470583772</v>
       </c>
       <c r="G19">
-        <v>18.21530319864165</v>
+        <v>17.46363341885419</v>
       </c>
       <c r="H19">
-        <v>3.65196299275741</v>
+        <v>3.629260338935805</v>
       </c>
       <c r="I19">
-        <v>3.766498450647414</v>
+        <v>3.705617568755355</v>
       </c>
       <c r="J19">
-        <v>7.250103126637492</v>
+        <v>7.902702168189493</v>
       </c>
       <c r="K19">
-        <v>9.822477378646324</v>
+        <v>9.785610292700211</v>
       </c>
       <c r="L19">
-        <v>5.130921063527846</v>
+        <v>9.41752405016936</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>5.171597643620047</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>5.13719980681716</v>
       </c>
       <c r="O19">
         <v>0</v>
       </c>
       <c r="P19">
-        <v>12.63963223345236</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>11.56675593937266</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>12.76798101700841</v>
+      </c>
+      <c r="S19">
+        <v>11.46002130436934</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.6179501938405</v>
+        <v>22.34072610362822</v>
       </c>
       <c r="C20">
-        <v>17.08613398730308</v>
+        <v>17.41076657487785</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>30.42251339255314</v>
+        <v>30.54931658537959</v>
       </c>
       <c r="F20">
-        <v>41.29311747086582</v>
+        <v>41.09612956795143</v>
       </c>
       <c r="G20">
-        <v>19.63211832193671</v>
+        <v>19.10003821099717</v>
       </c>
       <c r="H20">
-        <v>3.077637554995295</v>
+        <v>3.042872763077065</v>
       </c>
       <c r="I20">
-        <v>3.849791373354079</v>
+        <v>3.778880731432862</v>
       </c>
       <c r="J20">
-        <v>7.429369193939207</v>
+        <v>7.950780840849285</v>
       </c>
       <c r="K20">
-        <v>9.932322750783602</v>
+        <v>9.849953588458101</v>
       </c>
       <c r="L20">
-        <v>5.430294112700645</v>
+        <v>9.445563623403991</v>
       </c>
       <c r="M20">
-        <v>0</v>
+        <v>5.315467753586097</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>5.423395447930761</v>
       </c>
       <c r="O20">
         <v>0</v>
       </c>
       <c r="P20">
-        <v>12.5369701958204</v>
+        <v>0</v>
       </c>
       <c r="Q20">
-        <v>12.10211077820465</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R20">
+        <v>12.69182205738795</v>
+      </c>
+      <c r="S20">
+        <v>11.9206945624656</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.96842987679719</v>
+        <v>23.54563655109215</v>
       </c>
       <c r="C21">
-        <v>18.00077076256312</v>
+        <v>18.24126177168521</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>32.39635278861505</v>
+        <v>32.68444303586471</v>
       </c>
       <c r="F21">
-        <v>43.65201855156606</v>
+        <v>43.27160717357965</v>
       </c>
       <c r="G21">
-        <v>20.58888817740398</v>
+        <v>21.95637159142814</v>
       </c>
       <c r="H21">
-        <v>3.415121018011373</v>
+        <v>3.369721144981888</v>
       </c>
       <c r="I21">
-        <v>4.009524185826966</v>
+        <v>3.912790771214383</v>
       </c>
       <c r="J21">
-        <v>7.470557753899261</v>
+        <v>7.230605954490335</v>
       </c>
       <c r="K21">
-        <v>9.756962912392755</v>
+        <v>9.5719646013924</v>
       </c>
       <c r="L21">
-        <v>5.560768391853048</v>
+        <v>9.205877472984799</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>5.310178120485722</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>5.535698627189083</v>
       </c>
       <c r="O21">
         <v>0</v>
       </c>
       <c r="P21">
-        <v>12.61996111013642</v>
+        <v>0</v>
       </c>
       <c r="Q21">
-        <v>12.3673743643793</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R21">
+        <v>12.86255574321588</v>
+      </c>
+      <c r="S21">
+        <v>11.91806296267016</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>24.81253099382392</v>
+        <v>24.29426145348147</v>
       </c>
       <c r="C22">
-        <v>18.53309691935771</v>
+        <v>18.70945855127063</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>33.4060909430719</v>
+        <v>33.80286454142416</v>
       </c>
       <c r="F22">
-        <v>44.96238927178569</v>
+        <v>44.45862750742204</v>
       </c>
       <c r="G22">
-        <v>21.19329337005436</v>
+        <v>23.87362593112691</v>
       </c>
       <c r="H22">
-        <v>3.618409409741142</v>
+        <v>3.56629141499385</v>
       </c>
       <c r="I22">
-        <v>4.108144549163418</v>
+        <v>3.993925474747007</v>
       </c>
       <c r="J22">
-        <v>7.499624638282039</v>
+        <v>6.796986064107491</v>
       </c>
       <c r="K22">
-        <v>9.653957831216802</v>
+        <v>9.392740661141975</v>
       </c>
       <c r="L22">
-        <v>5.627756360248926</v>
+        <v>9.059127641402831</v>
       </c>
       <c r="M22">
-        <v>0</v>
+        <v>5.323614963621607</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>5.590382784060891</v>
       </c>
       <c r="O22">
         <v>0</v>
       </c>
       <c r="P22">
-        <v>12.67565235870523</v>
+        <v>0</v>
       </c>
       <c r="Q22">
-        <v>12.54098201342902</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R22">
+        <v>12.97933476075776</v>
+      </c>
+      <c r="S22">
+        <v>11.90309284276268</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.37937638353619</v>
+        <v>23.92272668725506</v>
       </c>
       <c r="C23">
-        <v>18.22426516367382</v>
+        <v>18.45282705019725</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>32.86086942098128</v>
+        <v>33.18438009946922</v>
       </c>
       <c r="F23">
-        <v>44.27713521780429</v>
+        <v>43.85546851499944</v>
       </c>
       <c r="G23">
-        <v>20.90722031030756</v>
+        <v>22.6763505969209</v>
       </c>
       <c r="H23">
-        <v>3.510575180512123</v>
+        <v>3.462485887294183</v>
       </c>
       <c r="I23">
-        <v>4.053264480474528</v>
+        <v>3.94797606625678</v>
       </c>
       <c r="J23">
-        <v>7.490233640056172</v>
+        <v>7.093127851089896</v>
       </c>
       <c r="K23">
-        <v>9.721918182351175</v>
+        <v>9.509371977427971</v>
       </c>
       <c r="L23">
-        <v>5.59327902049113</v>
+        <v>9.147530039172196</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>5.339297997088801</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>5.564178665364283</v>
       </c>
       <c r="O23">
         <v>0</v>
       </c>
       <c r="P23">
-        <v>12.63858871624373</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>12.46395704514815</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R23">
+        <v>12.90323540975951</v>
+      </c>
+      <c r="S23">
+        <v>11.95128726702594</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.63672858121408</v>
+        <v>22.35945946511356</v>
       </c>
       <c r="C24">
-        <v>17.05476322943309</v>
+        <v>17.38221330904224</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>30.73415340065355</v>
+        <v>30.86111534016905</v>
       </c>
       <c r="F24">
-        <v>41.58693584695922</v>
+        <v>41.39009990219726</v>
       </c>
       <c r="G24">
-        <v>19.76119097590955</v>
+        <v>19.21089327548279</v>
       </c>
       <c r="H24">
-        <v>3.093229870661708</v>
+        <v>3.058405882344992</v>
       </c>
       <c r="I24">
-        <v>3.845927824128619</v>
+        <v>3.773190565022355</v>
       </c>
       <c r="J24">
-        <v>7.451837261258364</v>
+        <v>7.977447232204722</v>
       </c>
       <c r="K24">
-        <v>9.968949556902622</v>
+        <v>9.88337234033067</v>
       </c>
       <c r="L24">
-        <v>5.458110122653557</v>
+        <v>9.468126332500315</v>
       </c>
       <c r="M24">
-        <v>0</v>
+        <v>5.34607136863812</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>5.450435530431311</v>
       </c>
       <c r="O24">
         <v>0</v>
       </c>
       <c r="P24">
-        <v>12.51503482328867</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>12.15875927298626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>0</v>
+      </c>
+      <c r="R24">
+        <v>12.66928161315479</v>
+      </c>
+      <c r="S24">
+        <v>11.97706811547185</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>20.58423634793125</v>
+        <v>20.38434572264922</v>
       </c>
       <c r="C25">
-        <v>15.70354070037487</v>
+        <v>15.92351080158563</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>28.27654516398326</v>
+        <v>28.35828708407888</v>
       </c>
       <c r="F25">
-        <v>38.52455973419303</v>
+        <v>38.39026578806814</v>
       </c>
       <c r="G25">
-        <v>18.5201201740381</v>
+        <v>17.81745560884016</v>
       </c>
       <c r="H25">
-        <v>2.623915230928381</v>
+        <v>2.597628731432753</v>
       </c>
       <c r="I25">
-        <v>3.615770642968146</v>
+        <v>3.569277327731843</v>
       </c>
       <c r="J25">
-        <v>7.425963433434032</v>
+        <v>8.032687982269476</v>
       </c>
       <c r="K25">
-        <v>10.25874898153688</v>
+        <v>10.19939507659447</v>
       </c>
       <c r="L25">
-        <v>5.306231753490065</v>
+        <v>9.784198632609066</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>5.335226548637941</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>5.302511721855876</v>
       </c>
       <c r="O25">
         <v>0</v>
       </c>
       <c r="P25">
-        <v>12.39240747424015</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>11.85654999448978</v>
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>12.49394211030705</v>
+      </c>
+      <c r="S25">
+        <v>11.75570914459967</v>
       </c>
     </row>
   </sheetData>
